--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_12_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_12_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3272576.003786581</v>
+        <v>-3273351.818313202</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681858</v>
+        <v>590120.9651681859</v>
       </c>
     </row>
     <row r="9">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="D8" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>5.765157819097949</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>5.765157819097949</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>7.293863480540836</v>
       </c>
       <c r="C9" t="n">
-        <v>6.424434953660366</v>
+        <v>6.424434953660365</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,61 +1221,61 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="G9" t="n">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>7.293863480540836</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1306,52 +1306,52 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>6.424434953660366</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="J10" t="n">
+      <c r="R10" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="K10" t="n">
+      <c r="S10" t="n">
+        <v>6.424434953660365</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>7.293863480540836</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.8473936573216</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>245.1160793448691</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>234.7357164205249</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>261.249019421214</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>262.0778386506076</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>210.9168209648782</v>
       </c>
       <c r="I11" t="n">
-        <v>63.18521044981273</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>72.07386230193397</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>98.80585950455553</v>
+        <v>98.80585950455556</v>
       </c>
       <c r="U11" t="n">
         <v>129.5668924603754</v>
@@ -1430,13 +1430,13 @@
         <v>206.6642051884459</v>
       </c>
       <c r="W11" t="n">
-        <v>77.25911690054869</v>
+        <v>228.6611006664811</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>248.9925827970959</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>264.8180554171623</v>
       </c>
     </row>
     <row r="12">
@@ -1452,16 +1452,16 @@
         <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>24.24340724057211</v>
       </c>
       <c r="E12" t="n">
-        <v>144.2718996116789</v>
+        <v>144.2718996116787</v>
       </c>
       <c r="F12" t="n">
-        <v>21.63721574947581</v>
+        <v>21.63721574947584</v>
       </c>
       <c r="G12" t="n">
-        <v>13.87426533717761</v>
+        <v>13.87426533717764</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>41.89304783207157</v>
+        <v>41.8930478320716</v>
       </c>
       <c r="T12" t="n">
-        <v>75.3852071419402</v>
+        <v>75.38520714194023</v>
       </c>
       <c r="U12" t="n">
-        <v>102.7697443822204</v>
+        <v>102.7697443822205</v>
       </c>
       <c r="V12" t="n">
-        <v>110.0397147055816</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
         <v>249.98934675</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.21467515661033</v>
+        <v>58.21467515661035</v>
       </c>
       <c r="C13" t="n">
-        <v>45.46753659712886</v>
+        <v>45.46753659712888</v>
       </c>
       <c r="D13" t="n">
-        <v>17.94918897876422</v>
+        <v>27.13655018044591</v>
       </c>
       <c r="E13" t="n">
-        <v>25.1056078391257</v>
+        <v>15.91824663744366</v>
       </c>
       <c r="F13" t="n">
-        <v>24.29000507573102</v>
+        <v>24.29000507573105</v>
       </c>
       <c r="G13" t="n">
-        <v>45.78588991671292</v>
+        <v>45.78588991671295</v>
       </c>
       <c r="H13" t="n">
-        <v>37.67851330778346</v>
+        <v>37.67851330778349</v>
       </c>
       <c r="I13" t="n">
-        <v>24.83198225245681</v>
+        <v>24.83198225245684</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.96994468184562</v>
+        <v>40.96994468184565</v>
       </c>
       <c r="S13" t="n">
-        <v>96.39851157044332</v>
+        <v>96.39851157044335</v>
       </c>
       <c r="T13" t="n">
         <v>105.4607145730598</v>
@@ -1594,7 +1594,7 @@
         <v>104.2713435982358</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.87965753369474</v>
+        <v>96.87965753369477</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>261.8473936573216</v>
       </c>
       <c r="C14" t="n">
-        <v>245.1160793448691</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.7357164205249</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>261.249019421214</v>
       </c>
       <c r="F14" t="n">
-        <v>285.4248471464673</v>
+        <v>285.4248471464674</v>
       </c>
       <c r="G14" t="n">
-        <v>292.4625642935629</v>
+        <v>292.462564293563</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>72.07386230193396</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>129.5668924603753</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>198.37920056664</v>
+        <v>212.6276134119396</v>
       </c>
       <c r="Y14" t="n">
         <v>264.8180554171623</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>43.50310927627133</v>
       </c>
       <c r="C15" t="n">
         <v>171.025583927401</v>
@@ -1692,13 +1692,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>34.16441737310029</v>
+        <v>34.16441737310033</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>21.6372157494758</v>
       </c>
       <c r="G15" t="n">
-        <v>13.87426533717755</v>
+        <v>13.8742653371776</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>41.89304783207152</v>
+        <v>41.89304783207156</v>
       </c>
       <c r="T15" t="n">
-        <v>75.38520714194014</v>
+        <v>75.38520714194019</v>
       </c>
       <c r="U15" t="n">
-        <v>102.7697443822204</v>
+        <v>212.8772266207989</v>
       </c>
       <c r="V15" t="n">
-        <v>110.0397147055816</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>238.2278126545053</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.02731395493032</v>
+        <v>58.21467515661031</v>
       </c>
       <c r="C16" t="n">
-        <v>45.4675365971288</v>
+        <v>45.46753659712884</v>
       </c>
       <c r="D16" t="n">
-        <v>27.13655018044582</v>
+        <v>27.13655018044587</v>
       </c>
       <c r="E16" t="n">
-        <v>25.10560783912564</v>
+        <v>25.10560783912568</v>
       </c>
       <c r="F16" t="n">
-        <v>24.29000507573096</v>
+        <v>15.10264387405017</v>
       </c>
       <c r="G16" t="n">
-        <v>45.78588991671286</v>
+        <v>45.7858899167129</v>
       </c>
       <c r="H16" t="n">
-        <v>37.6785133077834</v>
+        <v>37.67851330778345</v>
       </c>
       <c r="I16" t="n">
-        <v>24.83198225245676</v>
+        <v>24.8319822524568</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.96994468184556</v>
+        <v>40.9699446818456</v>
       </c>
       <c r="S16" t="n">
-        <v>96.39851157044326</v>
+        <v>96.3985115704433</v>
       </c>
       <c r="T16" t="n">
-        <v>105.4607145730597</v>
+        <v>105.4607145730598</v>
       </c>
       <c r="U16" t="n">
         <v>164.1704531835732</v>
       </c>
       <c r="V16" t="n">
-        <v>131.0673347328656</v>
+        <v>131.0673347328657</v>
       </c>
       <c r="W16" t="n">
-        <v>164.223560553342</v>
+        <v>164.2235605533421</v>
       </c>
       <c r="X16" t="n">
-        <v>104.2713435982357</v>
+        <v>104.2713435982358</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.87965753369468</v>
+        <v>96.87965753369473</v>
       </c>
     </row>
     <row r="17">
@@ -1850,13 +1850,13 @@
         <v>133.0730562431252</v>
       </c>
       <c r="E17" t="n">
-        <v>159.5863592438143</v>
+        <v>159.5863592438142</v>
       </c>
       <c r="F17" t="n">
         <v>183.7621869690676</v>
       </c>
       <c r="G17" t="n">
-        <v>190.7999041161633</v>
+        <v>190.7999041161632</v>
       </c>
       <c r="H17" t="n">
         <v>109.2541607874784</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>27.90423228297567</v>
+        <v>27.90423228297564</v>
       </c>
       <c r="V17" t="n">
         <v>105.0015450110461</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
         <v>171.025583927401</v>
@@ -1932,10 +1932,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>120.8218458084964</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7432816712511</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>8.051541868861447</v>
+        <v>1.107084204820678</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>199.8544056180078</v>
+        <v>3.798054395660054</v>
       </c>
       <c r="U19" t="n">
-        <v>62.50779300617347</v>
+        <v>258.5641442285213</v>
       </c>
       <c r="V19" t="n">
-        <v>29.40467455546596</v>
+        <v>29.40467455546593</v>
       </c>
       <c r="W19" t="n">
-        <v>62.56090037594234</v>
+        <v>62.56090037594231</v>
       </c>
       <c r="X19" t="n">
-        <v>2.608683420836059</v>
+        <v>2.60868342083603</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,16 +2084,16 @@
         <v>143.4534191674694</v>
       </c>
       <c r="D20" t="n">
-        <v>133.0730562431252</v>
+        <v>133.0730562431253</v>
       </c>
       <c r="E20" t="n">
-        <v>159.5863592438142</v>
+        <v>159.5863592438143</v>
       </c>
       <c r="F20" t="n">
         <v>183.7621869690676</v>
       </c>
       <c r="G20" t="n">
-        <v>190.7999041161632</v>
+        <v>190.7999041161633</v>
       </c>
       <c r="H20" t="n">
         <v>109.2541607874784</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>27.90423228297564</v>
+        <v>27.90423228297567</v>
       </c>
       <c r="V20" t="n">
-        <v>105.0015450110468</v>
+        <v>105.0015450110461</v>
       </c>
       <c r="W20" t="n">
         <v>126.9984404890814</v>
@@ -2166,10 +2166,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>53.32360300419709</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.107084204820678</v>
+        <v>224.6387607162939</v>
       </c>
       <c r="V21" t="n">
-        <v>209.2243447646024</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>196.0563512223479</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3.798054395660054</v>
+        <v>199.8544056180078</v>
       </c>
       <c r="U22" t="n">
-        <v>62.50779300617344</v>
+        <v>62.50779300617347</v>
       </c>
       <c r="V22" t="n">
-        <v>29.40467455546593</v>
+        <v>29.40467455546596</v>
       </c>
       <c r="W22" t="n">
-        <v>62.56090037594231</v>
+        <v>62.56090037594234</v>
       </c>
       <c r="X22" t="n">
-        <v>2.60868342083603</v>
+        <v>2.608683420836059</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,13 +2324,13 @@
         <v>133.0730562431252</v>
       </c>
       <c r="E23" t="n">
-        <v>159.5863592438142</v>
+        <v>159.5863592438143</v>
       </c>
       <c r="F23" t="n">
         <v>183.7621869690676</v>
       </c>
       <c r="G23" t="n">
-        <v>190.7999041161632</v>
+        <v>190.7999041161633</v>
       </c>
       <c r="H23" t="n">
         <v>109.2541607874784</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>27.90423228297564</v>
+        <v>27.90423228297567</v>
       </c>
       <c r="V23" t="n">
         <v>105.0015450110461</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
@@ -2448,13 +2448,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>142.687739335292</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1.107084204820678</v>
+        <v>1.107084204820707</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>209.2243447646024</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>15.97265973166406</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>3.798054395660054</v>
+        <v>3.798054395660083</v>
       </c>
       <c r="U25" t="n">
-        <v>62.50779300617344</v>
+        <v>258.5641442285212</v>
       </c>
       <c r="V25" t="n">
-        <v>29.40467455546593</v>
+        <v>29.40467455546596</v>
       </c>
       <c r="W25" t="n">
-        <v>62.56090037594231</v>
+        <v>62.56090037594234</v>
       </c>
       <c r="X25" t="n">
-        <v>2.60868342083603</v>
+        <v>2.608683420836059</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2564,16 +2564,16 @@
         <v>240.8534870316419</v>
       </c>
       <c r="F26" t="n">
-        <v>265.0293147568954</v>
+        <v>265.0293147568953</v>
       </c>
       <c r="G26" t="n">
-        <v>272.067031903991</v>
+        <v>272.0670319039909</v>
       </c>
       <c r="H26" t="n">
         <v>190.5212885753061</v>
       </c>
       <c r="I26" t="n">
-        <v>42.7896780602407</v>
+        <v>42.78967806024067</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.67832991236195</v>
+        <v>51.67832991236192</v>
       </c>
       <c r="T26" t="n">
-        <v>78.4103271149835</v>
+        <v>78.41032711498347</v>
       </c>
       <c r="U26" t="n">
-        <v>109.1713600708034</v>
+        <v>109.1713600708033</v>
       </c>
       <c r="V26" t="n">
         <v>186.2686727988738</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>23.10757688669932</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.7589952089386</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.31485553149203</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>163.7620641661451</v>
+        <v>21.49751544249952</v>
       </c>
       <c r="T27" t="n">
-        <v>197.2542234760137</v>
+        <v>54.98967475236815</v>
       </c>
       <c r="U27" t="n">
-        <v>90.08314491283251</v>
+        <v>201.9035539590312</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.8191427670383</v>
+        <v>37.81914276703827</v>
       </c>
       <c r="C28" t="n">
-        <v>25.07200420755683</v>
+        <v>25.0720042075568</v>
       </c>
       <c r="D28" t="n">
-        <v>6.741017790873855</v>
+        <v>6.741017790873826</v>
       </c>
       <c r="E28" t="n">
-        <v>4.710075449553671</v>
+        <v>4.710075449553642</v>
       </c>
       <c r="F28" t="n">
-        <v>3.894472686158991</v>
+        <v>3.894472686158963</v>
       </c>
       <c r="G28" t="n">
-        <v>25.39035752714089</v>
+        <v>25.39035752714086</v>
       </c>
       <c r="H28" t="n">
-        <v>17.28298091821144</v>
+        <v>17.28298091821141</v>
       </c>
       <c r="I28" t="n">
-        <v>4.436449862884788</v>
+        <v>4.43644986288476</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.57441229227359</v>
+        <v>20.57441229227356</v>
       </c>
       <c r="S28" t="n">
-        <v>76.00297918087129</v>
+        <v>76.00297918087126</v>
       </c>
       <c r="T28" t="n">
-        <v>85.06518218348778</v>
+        <v>85.06518218348775</v>
       </c>
       <c r="U28" t="n">
-        <v>143.7749207940012</v>
+        <v>143.7749207940011</v>
       </c>
       <c r="V28" t="n">
         <v>110.6718023432936</v>
@@ -2776,10 +2776,10 @@
         <v>143.82802816377</v>
       </c>
       <c r="X28" t="n">
-        <v>83.87581120866375</v>
+        <v>83.87581120866372</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.48412514412271</v>
+        <v>76.48412514412269</v>
       </c>
     </row>
     <row r="29">
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.67832991236197</v>
+        <v>51.67832991236199</v>
       </c>
       <c r="T29" t="n">
-        <v>78.41032711498353</v>
+        <v>78.41032711498352</v>
       </c>
       <c r="U29" t="n">
         <v>109.1713600708034</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>23.10757688669935</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
@@ -2880,10 +2880,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>92.78673886397408</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7432816712511</v>
+        <v>85.02378845167563</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>163.7620641661451</v>
+        <v>21.49751544249958</v>
       </c>
       <c r="T30" t="n">
         <v>54.98967475236821</v>
@@ -3108,7 +3108,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>171.025583927401</v>
+        <v>26.87396684406997</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
@@ -3123,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>107.7589952089386</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>76.8656531573088</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>108.4083722538609</v>
+        <v>67.93534097094418</v>
       </c>
       <c r="T33" t="n">
-        <v>197.2542234760137</v>
+        <v>53.10260639268267</v>
       </c>
       <c r="U33" t="n">
-        <v>80.48714363296288</v>
+        <v>224.6387607162939</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3269,7 +3269,7 @@
         <v>173.0422170429352</v>
       </c>
       <c r="D35" t="n">
-        <v>162.6618541185909</v>
+        <v>162.661854118591</v>
       </c>
       <c r="E35" t="n">
         <v>189.17515711928</v>
@@ -3281,7 +3281,7 @@
         <v>220.388701991629</v>
       </c>
       <c r="H35" t="n">
-        <v>138.8429586629441</v>
+        <v>138.8429586629442</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>26.73199720262153</v>
+        <v>26.73199720262156</v>
       </c>
       <c r="U35" t="n">
-        <v>57.4930301584414</v>
+        <v>57.49303015844143</v>
       </c>
       <c r="V35" t="n">
         <v>134.5903428865119</v>
@@ -3332,7 +3332,7 @@
         <v>176.9187204951619</v>
       </c>
       <c r="Y35" t="n">
-        <v>192.7441931152283</v>
+        <v>192.7441931152284</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
@@ -3360,10 +3360,10 @@
         <v>135.7432816712511</v>
       </c>
       <c r="H36" t="n">
-        <v>107.7589952089386</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>76.8656531573088</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>180.1820414475937</v>
+        <v>3.311344840006249</v>
       </c>
       <c r="U36" t="n">
-        <v>30.69588208028644</v>
+        <v>221.1656431267214</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.32464926850933</v>
+        <v>24.32464926850935</v>
       </c>
       <c r="T37" t="n">
-        <v>33.38685227112581</v>
+        <v>33.38685227112584</v>
       </c>
       <c r="U37" t="n">
-        <v>92.0965908816392</v>
+        <v>92.09659088163923</v>
       </c>
       <c r="V37" t="n">
-        <v>58.99347243093169</v>
+        <v>58.99347243093172</v>
       </c>
       <c r="W37" t="n">
-        <v>92.14969825140807</v>
+        <v>92.1496982514081</v>
       </c>
       <c r="X37" t="n">
-        <v>32.19748129630179</v>
+        <v>32.19748129630182</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.80579523176075</v>
+        <v>24.80579523176078</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>189.7735313553875</v>
+        <v>189.7735313553876</v>
       </c>
       <c r="C38" t="n">
-        <v>173.0422170429351</v>
+        <v>173.0422170429352</v>
       </c>
       <c r="D38" t="n">
-        <v>162.6618541185909</v>
+        <v>162.661854118591</v>
       </c>
       <c r="E38" t="n">
         <v>189.17515711928</v>
       </c>
       <c r="F38" t="n">
-        <v>213.3509848445333</v>
+        <v>213.3509848445334</v>
       </c>
       <c r="G38" t="n">
         <v>220.388701991629</v>
       </c>
       <c r="H38" t="n">
-        <v>138.8429586629441</v>
+        <v>138.8429586629442</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,13 +3554,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>26.7319972026215</v>
+        <v>26.73199720262156</v>
       </c>
       <c r="U38" t="n">
-        <v>57.49303015844137</v>
+        <v>57.49303015844143</v>
       </c>
       <c r="V38" t="n">
-        <v>134.5903428865118</v>
+        <v>134.5903428865119</v>
       </c>
       <c r="W38" t="n">
         <v>156.5872383645471</v>
@@ -3569,7 +3569,7 @@
         <v>176.9187204951619</v>
       </c>
       <c r="Y38" t="n">
-        <v>192.7441931152283</v>
+        <v>192.7441931152284</v>
       </c>
     </row>
     <row r="39">
@@ -3582,10 +3582,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>156.0334337071738</v>
@@ -3597,10 +3597,10 @@
         <v>135.7432816712511</v>
       </c>
       <c r="H39" t="n">
-        <v>107.7589952089386</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>76.8656531573088</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,10 +3633,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>180.1820414475932</v>
+        <v>197.2542234760137</v>
       </c>
       <c r="U39" t="n">
-        <v>30.69588208028641</v>
+        <v>173.3351880653599</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.3246492685093</v>
+        <v>24.32464926850935</v>
       </c>
       <c r="T40" t="n">
-        <v>33.38685227112578</v>
+        <v>33.38685227112584</v>
       </c>
       <c r="U40" t="n">
-        <v>92.09659088163917</v>
+        <v>92.09659088163923</v>
       </c>
       <c r="V40" t="n">
-        <v>58.99347243093166</v>
+        <v>58.99347243093172</v>
       </c>
       <c r="W40" t="n">
-        <v>92.14969825140804</v>
+        <v>92.1496982514081</v>
       </c>
       <c r="X40" t="n">
-        <v>32.19748129630176</v>
+        <v>32.19748129630182</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.80579523176073</v>
+        <v>24.80579523176078</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>189.7735313553875</v>
+        <v>189.7735313553876</v>
       </c>
       <c r="C41" t="n">
-        <v>173.0422170429351</v>
+        <v>173.0422170429352</v>
       </c>
       <c r="D41" t="n">
-        <v>162.6618541185909</v>
+        <v>162.661854118591</v>
       </c>
       <c r="E41" t="n">
-        <v>189.1751571192799</v>
+        <v>189.17515711928</v>
       </c>
       <c r="F41" t="n">
-        <v>213.3509848445333</v>
+        <v>213.3509848445334</v>
       </c>
       <c r="G41" t="n">
-        <v>220.3887019916289</v>
+        <v>220.388701991629</v>
       </c>
       <c r="H41" t="n">
-        <v>138.8429586629441</v>
+        <v>138.8429586629442</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.73199720262147</v>
+        <v>26.73199720262156</v>
       </c>
       <c r="U41" t="n">
-        <v>57.49303015844134</v>
+        <v>57.49303015844143</v>
       </c>
       <c r="V41" t="n">
-        <v>134.5903428865118</v>
+        <v>134.5903428865119</v>
       </c>
       <c r="W41" t="n">
         <v>156.5872383645471</v>
@@ -3806,7 +3806,7 @@
         <v>176.9187204951619</v>
       </c>
       <c r="Y41" t="n">
-        <v>192.7441931152283</v>
+        <v>192.7441931152284</v>
       </c>
     </row>
     <row r="42">
@@ -3819,25 +3819,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>107.7589952089386</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>76.8656531573088</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>197.2542234760137</v>
       </c>
       <c r="U42" t="n">
-        <v>182.9165674634477</v>
+        <v>92.91471039172806</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.32464926850927</v>
+        <v>24.32464926850935</v>
       </c>
       <c r="T43" t="n">
-        <v>33.38685227112575</v>
+        <v>33.38685227112584</v>
       </c>
       <c r="U43" t="n">
-        <v>92.09659088163914</v>
+        <v>92.09659088163923</v>
       </c>
       <c r="V43" t="n">
-        <v>58.99347243093163</v>
+        <v>58.99347243093172</v>
       </c>
       <c r="W43" t="n">
-        <v>92.14969825140801</v>
+        <v>92.1496982514081</v>
       </c>
       <c r="X43" t="n">
-        <v>32.19748129630173</v>
+        <v>32.19748129630182</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.8057952317607</v>
+        <v>24.80579523176078</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>173.0422170429352</v>
       </c>
       <c r="D44" t="n">
-        <v>162.6618541185909</v>
+        <v>162.661854118591</v>
       </c>
       <c r="E44" t="n">
         <v>189.17515711928</v>
@@ -3992,7 +3992,7 @@
         <v>220.388701991629</v>
       </c>
       <c r="H44" t="n">
-        <v>138.8429586629441</v>
+        <v>138.8429586629442</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>26.73199720262154</v>
+        <v>26.73199720262156</v>
       </c>
       <c r="U44" t="n">
-        <v>57.4930301584414</v>
+        <v>57.49303015844143</v>
       </c>
       <c r="V44" t="n">
         <v>134.5903428865119</v>
@@ -4043,7 +4043,7 @@
         <v>176.9187204951619</v>
       </c>
       <c r="Y44" t="n">
-        <v>192.7441931152283</v>
+        <v>192.7441931152284</v>
       </c>
     </row>
     <row r="45">
@@ -4068,7 +4068,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>54.95530855018536</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>77.31485553149203</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.7620641661451</v>
       </c>
       <c r="T45" t="n">
-        <v>3.31134484000622</v>
+        <v>3.311344840006249</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6387607162939</v>
+        <v>115.8320051003347</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>24.32464926850933</v>
+        <v>24.32464926850935</v>
       </c>
       <c r="T46" t="n">
-        <v>33.38685227112581</v>
+        <v>33.38685227112584</v>
       </c>
       <c r="U46" t="n">
-        <v>92.0965908816392</v>
+        <v>92.09659088163923</v>
       </c>
       <c r="V46" t="n">
-        <v>58.99347243093169</v>
+        <v>58.99347243093172</v>
       </c>
       <c r="W46" t="n">
-        <v>92.14969825140807</v>
+        <v>92.1496982514081</v>
       </c>
       <c r="X46" t="n">
-        <v>32.19748129630179</v>
+        <v>32.19748129630182</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.80579523176075</v>
+        <v>24.80579523176078</v>
       </c>
     </row>
   </sheetData>
@@ -4781,7 +4781,7 @@
         <v>23.35206218570077</v>
       </c>
       <c r="C8" t="n">
-        <v>23.35206218570077</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="D8" t="n">
         <v>15.9845233164676</v>
@@ -4805,13 +4805,13 @@
         <v>0.5835090784432668</v>
       </c>
       <c r="K8" t="n">
-        <v>7.804433924178694</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="L8" t="n">
-        <v>7.804433924178694</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="M8" t="n">
-        <v>7.804433924178694</v>
+        <v>3.493732152831573</v>
       </c>
       <c r="N8" t="n">
         <v>10.714656998567</v>
@@ -4835,13 +4835,13 @@
         <v>29.17545392216334</v>
       </c>
       <c r="U8" t="n">
-        <v>29.17545392216334</v>
+        <v>23.35206218570077</v>
       </c>
       <c r="V8" t="n">
-        <v>29.17545392216334</v>
+        <v>23.35206218570077</v>
       </c>
       <c r="W8" t="n">
-        <v>29.17545392216334</v>
+        <v>23.35206218570077</v>
       </c>
       <c r="X8" t="n">
         <v>23.35206218570077</v>
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.80791505293017</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="C9" t="n">
-        <v>15.3185868169096</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="D9" t="n">
-        <v>15.3185868169096</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="E9" t="n">
-        <v>15.3185868169096</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="F9" t="n">
-        <v>7.951047947676434</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="G9" t="n">
         <v>0.5835090784432668</v>
@@ -4881,16 +4881,16 @@
         <v>0.5835090784432668</v>
       </c>
       <c r="J9" t="n">
+        <v>0.5835090784432668</v>
+      </c>
+      <c r="K9" t="n">
         <v>7.804433924178694</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>15.02535876991412</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>22.24628361564955</v>
-      </c>
-      <c r="M9" t="n">
-        <v>29.17545392216334</v>
       </c>
       <c r="N9" t="n">
         <v>29.17545392216334</v>
@@ -4908,25 +4908,25 @@
         <v>29.17545392216334</v>
       </c>
       <c r="S9" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="T9" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="U9" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="V9" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="W9" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="X9" t="n">
-        <v>29.17545392216334</v>
+        <v>14.440376183697</v>
       </c>
       <c r="Y9" t="n">
-        <v>29.17545392216334</v>
+        <v>14.440376183697</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.17545392216334</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="C10" t="n">
-        <v>29.17545392216334</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="D10" t="n">
-        <v>29.17545392216334</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="E10" t="n">
-        <v>29.17545392216334</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="F10" t="n">
-        <v>29.17545392216334</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="G10" t="n">
-        <v>29.17545392216334</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="H10" t="n">
-        <v>22.68612568614277</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="I10" t="n">
-        <v>15.3185868169096</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="J10" t="n">
-        <v>7.951047947676434</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="K10" t="n">
         <v>0.5835090784432668</v>
@@ -4981,31 +4981,31 @@
         <v>29.17545392216334</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="R10" t="n">
-        <v>29.17545392216334</v>
+        <v>14.440376183697</v>
       </c>
       <c r="S10" t="n">
-        <v>29.17545392216334</v>
+        <v>7.951047947676434</v>
       </c>
       <c r="T10" t="n">
-        <v>29.17545392216334</v>
+        <v>7.951047947676434</v>
       </c>
       <c r="U10" t="n">
-        <v>29.17545392216334</v>
+        <v>7.951047947676434</v>
       </c>
       <c r="V10" t="n">
-        <v>29.17545392216334</v>
+        <v>7.951047947676434</v>
       </c>
       <c r="W10" t="n">
-        <v>29.17545392216334</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="X10" t="n">
-        <v>29.17545392216334</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="Y10" t="n">
-        <v>29.17545392216334</v>
+        <v>0.5835090784432668</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>846.4341086752058</v>
+        <v>511.7963652197156</v>
       </c>
       <c r="C11" t="n">
-        <v>598.8421093369541</v>
+        <v>511.7963652197156</v>
       </c>
       <c r="D11" t="n">
-        <v>361.7353250737976</v>
+        <v>511.7963652197156</v>
       </c>
       <c r="E11" t="n">
-        <v>97.84742666853073</v>
+        <v>511.7963652197156</v>
       </c>
       <c r="F11" t="n">
-        <v>97.84742666853073</v>
+        <v>511.7963652197156</v>
       </c>
       <c r="G11" t="n">
-        <v>97.84742666853073</v>
+        <v>247.0712756736473</v>
       </c>
       <c r="H11" t="n">
-        <v>97.84742666853073</v>
+        <v>34.02398176972999</v>
       </c>
       <c r="I11" t="n">
         <v>34.02398176972999</v>
@@ -5066,25 +5066,25 @@
         <v>1701.1990884865</v>
       </c>
       <c r="S11" t="n">
-        <v>1628.397207373435</v>
+        <v>1701.1990884865</v>
       </c>
       <c r="T11" t="n">
-        <v>1528.593308883985</v>
+        <v>1601.39518999705</v>
       </c>
       <c r="U11" t="n">
-        <v>1397.717659934111</v>
+        <v>1470.519541047175</v>
       </c>
       <c r="V11" t="n">
-        <v>1188.965937521539</v>
+        <v>1261.767818634604</v>
       </c>
       <c r="W11" t="n">
-        <v>1110.926425500783</v>
+        <v>1030.797009880583</v>
       </c>
       <c r="X11" t="n">
-        <v>1110.926425500783</v>
+        <v>779.2893504895766</v>
       </c>
       <c r="Y11" t="n">
-        <v>1110.926425500783</v>
+        <v>511.7963652197156</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>535.9647779317289</v>
+        <v>412.8647614326646</v>
       </c>
       <c r="C12" t="n">
-        <v>363.2116628535461</v>
+        <v>240.1116463544818</v>
       </c>
       <c r="D12" t="n">
-        <v>215.62335621249</v>
+        <v>215.6233562124898</v>
       </c>
       <c r="E12" t="n">
-        <v>69.89416468554154</v>
+        <v>69.8941646855416</v>
       </c>
       <c r="F12" t="n">
-        <v>48.03839120122253</v>
+        <v>48.03839120122256</v>
       </c>
       <c r="G12" t="n">
         <v>34.02398176972999</v>
@@ -5121,19 +5121,19 @@
         <v>67.59992919925376</v>
       </c>
       <c r="K12" t="n">
-        <v>109.0199349249335</v>
+        <v>251.5921844868157</v>
       </c>
       <c r="L12" t="n">
-        <v>417.2698351768574</v>
+        <v>559.8420847387397</v>
       </c>
       <c r="M12" t="n">
-        <v>829.7831236370678</v>
+        <v>972.35537319895</v>
       </c>
       <c r="N12" t="n">
-        <v>1250.829898037476</v>
+        <v>999.3398965394949</v>
       </c>
       <c r="O12" t="n">
-        <v>1584.645615000968</v>
+        <v>1333.155613502987</v>
       </c>
       <c r="P12" t="n">
         <v>1584.645615000968</v>
@@ -5148,22 +5148,22 @@
         <v>1658.882878555114</v>
       </c>
       <c r="T12" t="n">
-        <v>1582.736204674367</v>
+        <v>1582.736204674366</v>
       </c>
       <c r="U12" t="n">
         <v>1478.928382066063</v>
       </c>
       <c r="V12" t="n">
-        <v>1367.777155090728</v>
+        <v>1244.677138591664</v>
       </c>
       <c r="W12" t="n">
-        <v>1115.262663424061</v>
+        <v>992.1626469249971</v>
       </c>
       <c r="X12" t="n">
-        <v>908.7357648296389</v>
+        <v>785.6357483305746</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.0073290532894</v>
+        <v>579.9073125542251</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>257.3661271916522</v>
+        <v>257.3661271916521</v>
       </c>
       <c r="C13" t="n">
-        <v>211.4393225480877</v>
+        <v>211.4393225480875</v>
       </c>
       <c r="D13" t="n">
-        <v>193.308828630144</v>
+        <v>184.0286658001623</v>
       </c>
       <c r="E13" t="n">
-        <v>167.9496287926433</v>
+        <v>167.9496287926434</v>
       </c>
       <c r="F13" t="n">
-        <v>143.4142701302888</v>
+        <v>143.4142701302889</v>
       </c>
       <c r="G13" t="n">
-        <v>97.1658964770434</v>
+        <v>97.16589647704346</v>
       </c>
       <c r="H13" t="n">
-        <v>59.10679212574696</v>
+        <v>59.10679212574699</v>
       </c>
       <c r="I13" t="n">
         <v>34.02398176972999</v>
       </c>
       <c r="J13" t="n">
-        <v>83.14999623572271</v>
+        <v>83.14999623572282</v>
       </c>
       <c r="K13" t="n">
-        <v>216.1668585613782</v>
+        <v>216.1668585613784</v>
       </c>
       <c r="L13" t="n">
-        <v>408.4457084974687</v>
+        <v>408.4457084974688</v>
       </c>
       <c r="M13" t="n">
-        <v>615.2111695410321</v>
+        <v>615.2111695410322</v>
       </c>
       <c r="N13" t="n">
-        <v>825.0702670489505</v>
+        <v>825.0702670489507</v>
       </c>
       <c r="O13" t="n">
         <v>1012.782735852194</v>
@@ -5227,7 +5227,7 @@
         <v>1089.980005304159</v>
       </c>
       <c r="T13" t="n">
-        <v>983.4540309879368</v>
+        <v>983.4540309879364</v>
       </c>
       <c r="U13" t="n">
         <v>817.6252903984689</v>
@@ -5236,7 +5236,7 @@
         <v>685.234043193554</v>
       </c>
       <c r="W13" t="n">
-        <v>519.3516587962388</v>
+        <v>519.3516587962389</v>
       </c>
       <c r="X13" t="n">
         <v>414.0270693030714</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1102.447423391371</v>
+        <v>881.6365381952294</v>
       </c>
       <c r="C14" t="n">
-        <v>854.8554240531191</v>
+        <v>881.6365381952294</v>
       </c>
       <c r="D14" t="n">
-        <v>617.7486397899626</v>
+        <v>881.6365381952294</v>
       </c>
       <c r="E14" t="n">
-        <v>617.7486397899626</v>
+        <v>617.7486397899627</v>
       </c>
       <c r="F14" t="n">
-        <v>329.4407133793895</v>
+        <v>329.4407133793896</v>
       </c>
       <c r="G14" t="n">
         <v>34.02398176972999</v>
@@ -5282,13 +5282,13 @@
         <v>264.5158476482686</v>
       </c>
       <c r="L14" t="n">
-        <v>548.7031588532499</v>
+        <v>548.7031588532498</v>
       </c>
       <c r="M14" t="n">
-        <v>880.1285934594752</v>
+        <v>880.128593459475</v>
       </c>
       <c r="N14" t="n">
-        <v>1201.399663099984</v>
+        <v>1201.399663099983</v>
       </c>
       <c r="O14" t="n">
         <v>1458.638472623761</v>
@@ -5297,31 +5297,31 @@
         <v>1641.247051954105</v>
       </c>
       <c r="Q14" t="n">
-        <v>1701.1990884865</v>
+        <v>1701.199088486499</v>
       </c>
       <c r="R14" t="n">
-        <v>1701.1990884865</v>
+        <v>1701.199088486499</v>
       </c>
       <c r="S14" t="n">
-        <v>1701.1990884865</v>
+        <v>1628.397207373435</v>
       </c>
       <c r="T14" t="n">
-        <v>1701.1990884865</v>
+        <v>1628.397207373435</v>
       </c>
       <c r="U14" t="n">
-        <v>1570.323439536626</v>
+        <v>1628.397207373435</v>
       </c>
       <c r="V14" t="n">
-        <v>1570.323439536626</v>
+        <v>1628.397207373435</v>
       </c>
       <c r="W14" t="n">
-        <v>1570.323439536626</v>
+        <v>1628.397207373435</v>
       </c>
       <c r="X14" t="n">
-        <v>1369.940408661232</v>
+        <v>1413.621840290667</v>
       </c>
       <c r="Y14" t="n">
-        <v>1102.447423391371</v>
+        <v>1146.128855020806</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>547.8451154019257</v>
+        <v>424.7450989028616</v>
       </c>
       <c r="C15" t="n">
-        <v>375.0920003237429</v>
+        <v>251.9919838246788</v>
       </c>
       <c r="D15" t="n">
-        <v>227.5036936826867</v>
+        <v>104.4036771836227</v>
       </c>
       <c r="E15" t="n">
-        <v>192.9941811846056</v>
+        <v>69.89416468554151</v>
       </c>
       <c r="F15" t="n">
-        <v>48.03839120122247</v>
+        <v>48.03839120122252</v>
       </c>
       <c r="G15" t="n">
         <v>34.02398176972999</v>
@@ -5373,34 +5373,34 @@
         <v>1509.649661845765</v>
       </c>
       <c r="P15" t="n">
-        <v>1701.1990884865</v>
+        <v>1701.199088486499</v>
       </c>
       <c r="Q15" t="n">
-        <v>1701.1990884865</v>
+        <v>1701.199088486499</v>
       </c>
       <c r="R15" t="n">
-        <v>1701.1990884865</v>
+        <v>1701.199088486499</v>
       </c>
       <c r="S15" t="n">
         <v>1658.882878555114</v>
       </c>
       <c r="T15" t="n">
-        <v>1582.736204674367</v>
+        <v>1582.736204674366</v>
       </c>
       <c r="U15" t="n">
-        <v>1478.928382066063</v>
+        <v>1367.708703037196</v>
       </c>
       <c r="V15" t="n">
-        <v>1367.777155090728</v>
+        <v>1133.457459562797</v>
       </c>
       <c r="W15" t="n">
-        <v>1127.143000894258</v>
+        <v>880.94296789613</v>
       </c>
       <c r="X15" t="n">
-        <v>920.6161022998357</v>
+        <v>674.4160693017075</v>
       </c>
       <c r="Y15" t="n">
-        <v>714.8876665234861</v>
+        <v>468.6876335253579</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.6462900216333</v>
+        <v>257.3661271916524</v>
       </c>
       <c r="C16" t="n">
-        <v>220.7194853780688</v>
+        <v>211.4393225480879</v>
       </c>
       <c r="D16" t="n">
-        <v>193.3088286301438</v>
+        <v>184.0286658001628</v>
       </c>
       <c r="E16" t="n">
-        <v>167.9496287926431</v>
+        <v>158.6694659626621</v>
       </c>
       <c r="F16" t="n">
-        <v>143.4142701302886</v>
+        <v>143.4142701302882</v>
       </c>
       <c r="G16" t="n">
-        <v>97.16589647704329</v>
+        <v>97.16589647704338</v>
       </c>
       <c r="H16" t="n">
-        <v>59.10679212574691</v>
+        <v>59.10679212574696</v>
       </c>
       <c r="I16" t="n">
         <v>34.02398176972999</v>
       </c>
       <c r="J16" t="n">
-        <v>83.14999623572274</v>
+        <v>83.14999623572285</v>
       </c>
       <c r="K16" t="n">
         <v>216.1668585613784</v>
@@ -5443,10 +5443,10 @@
         <v>408.4457084974689</v>
       </c>
       <c r="M16" t="n">
-        <v>615.2111695410324</v>
+        <v>615.2111695410323</v>
       </c>
       <c r="N16" t="n">
-        <v>825.0702670489507</v>
+        <v>825.0702670489508</v>
       </c>
       <c r="O16" t="n">
         <v>1012.782735852194</v>
@@ -5455,7 +5455,7 @@
         <v>1167.593828993883</v>
       </c>
       <c r="Q16" t="n">
-        <v>1228.736021720613</v>
+        <v>1228.736021720612</v>
       </c>
       <c r="R16" t="n">
         <v>1187.352239213698</v>
@@ -5464,22 +5464,22 @@
         <v>1089.980005304159</v>
       </c>
       <c r="T16" t="n">
-        <v>983.4540309879372</v>
+        <v>983.454030987937</v>
       </c>
       <c r="U16" t="n">
-        <v>817.6252903984699</v>
+        <v>817.6252903984691</v>
       </c>
       <c r="V16" t="n">
-        <v>685.2340431935552</v>
+        <v>685.2340431935543</v>
       </c>
       <c r="W16" t="n">
-        <v>519.35165879624</v>
+        <v>519.3516587962391</v>
       </c>
       <c r="X16" t="n">
-        <v>414.0270693030727</v>
+        <v>414.0270693030716</v>
       </c>
       <c r="Y16" t="n">
-        <v>316.1688293700477</v>
+        <v>316.1688293700466</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>963.2452812920718</v>
+        <v>963.2452812920714</v>
       </c>
       <c r="C17" t="n">
-        <v>818.3428376885673</v>
+        <v>818.3428376885669</v>
       </c>
       <c r="D17" t="n">
-        <v>683.925609160158</v>
+        <v>683.9256091601576</v>
       </c>
       <c r="E17" t="n">
-        <v>522.7272664896385</v>
+        <v>522.7272664896382</v>
       </c>
       <c r="F17" t="n">
-        <v>337.1088958138124</v>
+        <v>337.1088958138123</v>
       </c>
       <c r="G17" t="n">
         <v>144.3817199389001</v>
@@ -5513,19 +5513,19 @@
         <v>34.02398176972999</v>
       </c>
       <c r="J17" t="n">
-        <v>77.33190476606434</v>
+        <v>77.33190476606444</v>
       </c>
       <c r="K17" t="n">
-        <v>264.5158476482686</v>
+        <v>264.5158476482687</v>
       </c>
       <c r="L17" t="n">
-        <v>548.7031588532499</v>
+        <v>548.70315885325</v>
       </c>
       <c r="M17" t="n">
-        <v>880.1285934594752</v>
+        <v>880.1285934594753</v>
       </c>
       <c r="N17" t="n">
-        <v>1201.399663099983</v>
+        <v>1201.399663099984</v>
       </c>
       <c r="O17" t="n">
         <v>1458.638472623761</v>
@@ -5534,7 +5534,7 @@
         <v>1641.247051954105</v>
       </c>
       <c r="Q17" t="n">
-        <v>1701.199088486499</v>
+        <v>1701.1990884865</v>
       </c>
       <c r="R17" t="n">
         <v>1701.1990884865</v>
@@ -5546,19 +5546,19 @@
         <v>1701.1990884865</v>
       </c>
       <c r="U17" t="n">
-        <v>1673.012995271373</v>
+        <v>1673.012995271372</v>
       </c>
       <c r="V17" t="n">
-        <v>1566.950828593549</v>
+        <v>1566.950828593548</v>
       </c>
       <c r="W17" t="n">
         <v>1438.669575574274</v>
       </c>
       <c r="X17" t="n">
-        <v>1289.851471918016</v>
+        <v>1289.851471918015</v>
       </c>
       <c r="Y17" t="n">
-        <v>1125.048042382902</v>
+        <v>1125.048042382901</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>794.0451484000541</v>
+        <v>634.017200979545</v>
       </c>
       <c r="C18" t="n">
-        <v>621.2920333218713</v>
+        <v>461.2640859013622</v>
       </c>
       <c r="D18" t="n">
-        <v>473.7037266808151</v>
+        <v>313.6757792603061</v>
       </c>
       <c r="E18" t="n">
-        <v>316.0941976836698</v>
+        <v>156.0662502631608</v>
       </c>
       <c r="F18" t="n">
-        <v>171.1384077002866</v>
+        <v>34.02398176972999</v>
       </c>
       <c r="G18" t="n">
         <v>34.02398176972999</v>
@@ -5598,16 +5598,16 @@
         <v>34.02398176972999</v>
       </c>
       <c r="L18" t="n">
-        <v>342.2738820216539</v>
+        <v>282.3333071644076</v>
       </c>
       <c r="M18" t="n">
-        <v>754.7871704818642</v>
+        <v>694.846595624618</v>
       </c>
       <c r="N18" t="n">
-        <v>1175.833944882273</v>
+        <v>1115.893370025027</v>
       </c>
       <c r="O18" t="n">
-        <v>1509.649661845765</v>
+        <v>1449.709086988518</v>
       </c>
       <c r="P18" t="n">
         <v>1701.1990884865</v>
@@ -5625,19 +5625,19 @@
         <v>1701.1990884865</v>
       </c>
       <c r="U18" t="n">
-        <v>1693.066217911892</v>
+        <v>1700.080821612944</v>
       </c>
       <c r="V18" t="n">
-        <v>1458.814974437493</v>
+        <v>1465.829578138544</v>
       </c>
       <c r="W18" t="n">
-        <v>1206.300482770826</v>
+        <v>1213.315086471878</v>
       </c>
       <c r="X18" t="n">
-        <v>999.7735841764037</v>
+        <v>1006.788187877455</v>
       </c>
       <c r="Y18" t="n">
-        <v>794.0451484000541</v>
+        <v>801.0597521011055</v>
       </c>
     </row>
     <row r="19">
@@ -5701,16 +5701,16 @@
         <v>394.5658575034933</v>
       </c>
       <c r="T19" t="n">
-        <v>192.6927205156066</v>
+        <v>390.7294389220185</v>
       </c>
       <c r="U19" t="n">
-        <v>129.5535356608859</v>
+        <v>129.5535356608858</v>
       </c>
       <c r="V19" t="n">
-        <v>99.85184419071828</v>
+        <v>99.85184419071823</v>
       </c>
       <c r="W19" t="n">
-        <v>36.65901552815026</v>
+        <v>36.65901552815023</v>
       </c>
       <c r="X19" t="n">
         <v>34.02398176972999</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>963.2452812920716</v>
+        <v>963.2452812920718</v>
       </c>
       <c r="C20" t="n">
-        <v>818.3428376885669</v>
+        <v>818.3428376885672</v>
       </c>
       <c r="D20" t="n">
-        <v>683.9256091601576</v>
+        <v>683.9256091601578</v>
       </c>
       <c r="E20" t="n">
-        <v>522.7272664896382</v>
+        <v>522.7272664896384</v>
       </c>
       <c r="F20" t="n">
-        <v>337.1088958138123</v>
+        <v>337.1088958138124</v>
       </c>
       <c r="G20" t="n">
         <v>144.3817199389001</v>
@@ -5750,16 +5750,16 @@
         <v>34.02398176972999</v>
       </c>
       <c r="J20" t="n">
-        <v>77.33190476606433</v>
+        <v>77.33190476606455</v>
       </c>
       <c r="K20" t="n">
-        <v>264.5158476482686</v>
+        <v>264.5158476482688</v>
       </c>
       <c r="L20" t="n">
-        <v>548.7031588532499</v>
+        <v>548.7031588532502</v>
       </c>
       <c r="M20" t="n">
-        <v>880.1285934594752</v>
+        <v>880.1285934594755</v>
       </c>
       <c r="N20" t="n">
         <v>1201.399663099984</v>
@@ -5786,13 +5786,13 @@
         <v>1673.012995271373</v>
       </c>
       <c r="V20" t="n">
-        <v>1566.950828593548</v>
+        <v>1566.950828593549</v>
       </c>
       <c r="W20" t="n">
         <v>1438.669575574274</v>
       </c>
       <c r="X20" t="n">
-        <v>1289.851471918015</v>
+        <v>1289.851471918016</v>
       </c>
       <c r="Y20" t="n">
         <v>1125.048042382902</v>
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>656.9307224694974</v>
+        <v>408.2276287457337</v>
       </c>
       <c r="C21" t="n">
-        <v>484.1776073913146</v>
+        <v>235.4745136675509</v>
       </c>
       <c r="D21" t="n">
-        <v>336.5893007502584</v>
+        <v>87.88620702649473</v>
       </c>
       <c r="E21" t="n">
-        <v>178.9797717531131</v>
+        <v>34.02398176972999</v>
       </c>
       <c r="F21" t="n">
         <v>34.02398176972999</v>
@@ -5829,25 +5829,25 @@
         <v>34.02398176972999</v>
       </c>
       <c r="J21" t="n">
-        <v>34.02398176972999</v>
+        <v>67.59992919925376</v>
       </c>
       <c r="K21" t="n">
-        <v>34.02398176972999</v>
+        <v>251.5921844868157</v>
       </c>
       <c r="L21" t="n">
-        <v>342.2738820216539</v>
+        <v>559.8420847387397</v>
       </c>
       <c r="M21" t="n">
-        <v>754.7871704818642</v>
+        <v>972.35537319895</v>
       </c>
       <c r="N21" t="n">
-        <v>1175.833944882273</v>
+        <v>999.3398965394949</v>
       </c>
       <c r="O21" t="n">
-        <v>1509.649661845765</v>
+        <v>1333.155613502987</v>
       </c>
       <c r="P21" t="n">
-        <v>1701.1990884865</v>
+        <v>1584.645615000968</v>
       </c>
       <c r="Q21" t="n">
         <v>1701.1990884865</v>
@@ -5862,19 +5862,19 @@
         <v>1701.1990884865</v>
       </c>
       <c r="U21" t="n">
-        <v>1700.080821612944</v>
+        <v>1474.291249379132</v>
       </c>
       <c r="V21" t="n">
-        <v>1488.743099628497</v>
+        <v>1240.040005904733</v>
       </c>
       <c r="W21" t="n">
-        <v>1236.22860796183</v>
+        <v>987.5255142380662</v>
       </c>
       <c r="X21" t="n">
-        <v>1029.701709367407</v>
+        <v>780.9986156436437</v>
       </c>
       <c r="Y21" t="n">
-        <v>823.9732735910578</v>
+        <v>575.2701798672941</v>
       </c>
     </row>
     <row r="22">
@@ -5935,19 +5935,19 @@
         <v>394.5658575034933</v>
       </c>
       <c r="S22" t="n">
-        <v>196.5291390970813</v>
+        <v>394.5658575034933</v>
       </c>
       <c r="T22" t="n">
-        <v>192.6927205156065</v>
+        <v>192.6927205156066</v>
       </c>
       <c r="U22" t="n">
-        <v>129.5535356608858</v>
+        <v>129.5535356608859</v>
       </c>
       <c r="V22" t="n">
-        <v>99.85184419071823</v>
+        <v>99.85184419071828</v>
       </c>
       <c r="W22" t="n">
-        <v>36.65901552815023</v>
+        <v>36.65901552815026</v>
       </c>
       <c r="X22" t="n">
         <v>34.02398176972999</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>963.2452812920715</v>
+        <v>963.2452812920714</v>
       </c>
       <c r="C23" t="n">
-        <v>818.342837688567</v>
+        <v>818.3428376885669</v>
       </c>
       <c r="D23" t="n">
-        <v>683.9256091601577</v>
+        <v>683.9256091601576</v>
       </c>
       <c r="E23" t="n">
-        <v>522.7272664896383</v>
+        <v>522.7272664896382</v>
       </c>
       <c r="F23" t="n">
-        <v>337.1088958138124</v>
+        <v>337.1088958138123</v>
       </c>
       <c r="G23" t="n">
         <v>144.3817199389001</v>
@@ -5987,19 +5987,19 @@
         <v>34.02398176972999</v>
       </c>
       <c r="J23" t="n">
-        <v>77.33190476606434</v>
+        <v>77.33190476606455</v>
       </c>
       <c r="K23" t="n">
-        <v>264.5158476482686</v>
+        <v>264.5158476482688</v>
       </c>
       <c r="L23" t="n">
-        <v>548.7031588532499</v>
+        <v>548.7031588532502</v>
       </c>
       <c r="M23" t="n">
-        <v>880.1285934594752</v>
+        <v>880.1285934594755</v>
       </c>
       <c r="N23" t="n">
-        <v>1201.399663099983</v>
+        <v>1201.399663099984</v>
       </c>
       <c r="O23" t="n">
         <v>1458.638472623761</v>
@@ -6008,19 +6008,19 @@
         <v>1641.247051954105</v>
       </c>
       <c r="Q23" t="n">
-        <v>1701.199088486499</v>
+        <v>1701.1990884865</v>
       </c>
       <c r="R23" t="n">
-        <v>1701.199088486499</v>
+        <v>1701.1990884865</v>
       </c>
       <c r="S23" t="n">
-        <v>1701.199088486499</v>
+        <v>1701.1990884865</v>
       </c>
       <c r="T23" t="n">
         <v>1701.1990884865</v>
       </c>
       <c r="U23" t="n">
-        <v>1673.012995271372</v>
+        <v>1673.012995271373</v>
       </c>
       <c r="V23" t="n">
         <v>1566.950828593548</v>
@@ -6072,16 +6072,16 @@
         <v>34.02398176972999</v>
       </c>
       <c r="L24" t="n">
-        <v>342.2738820216539</v>
+        <v>282.3333071644076</v>
       </c>
       <c r="M24" t="n">
-        <v>754.7871704818642</v>
+        <v>694.846595624618</v>
       </c>
       <c r="N24" t="n">
-        <v>1175.833944882273</v>
+        <v>1115.893370025027</v>
       </c>
       <c r="O24" t="n">
-        <v>1509.649661845765</v>
+        <v>1449.709086988518</v>
       </c>
       <c r="P24" t="n">
         <v>1701.1990884865</v>
@@ -6096,22 +6096,22 @@
         <v>1701.1990884865</v>
       </c>
       <c r="T24" t="n">
-        <v>1557.070058854892</v>
+        <v>1701.1990884865</v>
       </c>
       <c r="U24" t="n">
-        <v>1555.951791981335</v>
+        <v>1700.080821612944</v>
       </c>
       <c r="V24" t="n">
-        <v>1321.700548506936</v>
+        <v>1488.743099628497</v>
       </c>
       <c r="W24" t="n">
-        <v>1069.186056840269</v>
+        <v>1236.22860796183</v>
       </c>
       <c r="X24" t="n">
-        <v>862.6591582458469</v>
+        <v>1029.701709367407</v>
       </c>
       <c r="Y24" t="n">
-        <v>656.9307224694974</v>
+        <v>823.9732735910578</v>
       </c>
     </row>
     <row r="25">
@@ -6172,25 +6172,25 @@
         <v>394.5658575034933</v>
       </c>
       <c r="S25" t="n">
-        <v>378.4318577745397</v>
+        <v>394.5658575034933</v>
       </c>
       <c r="T25" t="n">
-        <v>374.5954391930649</v>
+        <v>390.7294389220185</v>
       </c>
       <c r="U25" t="n">
-        <v>311.4562543383443</v>
+        <v>129.5535356608859</v>
       </c>
       <c r="V25" t="n">
-        <v>281.7545628681767</v>
+        <v>99.85184419071828</v>
       </c>
       <c r="W25" t="n">
-        <v>218.5617342056086</v>
+        <v>36.65901552815026</v>
       </c>
       <c r="X25" t="n">
-        <v>215.9267004471884</v>
+        <v>34.02398176972999</v>
       </c>
       <c r="Y25" t="n">
-        <v>215.9267004471884</v>
+        <v>34.02398176972999</v>
       </c>
     </row>
     <row r="26">
@@ -6209,7 +6209,7 @@
         <v>1079.166490213704</v>
       </c>
       <c r="E26" t="n">
-        <v>835.8801396766917</v>
+        <v>835.8801396766921</v>
       </c>
       <c r="F26" t="n">
         <v>568.1737611343735</v>
@@ -6221,49 +6221,49 @@
         <v>100.912831357306</v>
       </c>
       <c r="I26" t="n">
-        <v>57.69093432675984</v>
+        <v>57.69093432675985</v>
       </c>
       <c r="J26" t="n">
         <v>241.8407605595033</v>
       </c>
       <c r="K26" t="n">
-        <v>569.8666066781166</v>
+        <v>569.8666066781159</v>
       </c>
       <c r="L26" t="n">
-        <v>994.8958211195068</v>
+        <v>994.8958211195063</v>
       </c>
       <c r="M26" t="n">
         <v>1467.163158962141</v>
       </c>
       <c r="N26" t="n">
-        <v>1929.276131839059</v>
+        <v>1929.276131839058</v>
       </c>
       <c r="O26" t="n">
-        <v>2327.356844599244</v>
+        <v>2327.356844599245</v>
       </c>
       <c r="P26" t="n">
-        <v>2650.807327165997</v>
+        <v>2650.807327165998</v>
       </c>
       <c r="Q26" t="n">
-        <v>2851.601266934801</v>
+        <v>2851.601266934802</v>
       </c>
       <c r="R26" t="n">
-        <v>2884.546716337992</v>
+        <v>2884.546716337993</v>
       </c>
       <c r="S26" t="n">
-        <v>2832.346383093182</v>
+        <v>2832.346383093183</v>
       </c>
       <c r="T26" t="n">
         <v>2753.144032471987</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.869931390367</v>
+        <v>2642.869931390368</v>
       </c>
       <c r="V26" t="n">
-        <v>2454.71975684605</v>
+        <v>2454.719756846051</v>
       </c>
       <c r="W26" t="n">
-        <v>2244.350495960283</v>
+        <v>2244.350495960284</v>
       </c>
       <c r="X26" t="n">
         <v>2013.444384437532</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>680.5976750265272</v>
+        <v>789.4451449345461</v>
       </c>
       <c r="C27" t="n">
-        <v>507.8445599483444</v>
+        <v>616.6920298563632</v>
       </c>
       <c r="D27" t="n">
-        <v>360.2562533072883</v>
+        <v>469.103723215307</v>
       </c>
       <c r="E27" t="n">
-        <v>202.646724310143</v>
+        <v>311.4941942181617</v>
       </c>
       <c r="F27" t="n">
-        <v>57.69093432675984</v>
+        <v>166.5384042347786</v>
       </c>
       <c r="G27" t="n">
-        <v>57.69093432675984</v>
+        <v>166.5384042347786</v>
       </c>
       <c r="H27" t="n">
-        <v>57.69093432675984</v>
+        <v>57.69093432675985</v>
       </c>
       <c r="I27" t="n">
-        <v>57.69093432675984</v>
+        <v>57.69093432675985</v>
       </c>
       <c r="J27" t="n">
         <v>91.26688175628362</v>
@@ -6327,28 +6327,28 @@
         <v>2136.71153744057</v>
       </c>
       <c r="R27" t="n">
-        <v>2058.615723772396</v>
+        <v>2136.71153744057</v>
       </c>
       <c r="S27" t="n">
-        <v>1893.199497341946</v>
+        <v>2114.996875377439</v>
       </c>
       <c r="T27" t="n">
-        <v>1693.952806962135</v>
+        <v>2059.451749364946</v>
       </c>
       <c r="U27" t="n">
-        <v>1602.959731292607</v>
+        <v>1855.508765567945</v>
       </c>
       <c r="V27" t="n">
-        <v>1368.708487818208</v>
+        <v>1621.257522093546</v>
       </c>
       <c r="W27" t="n">
-        <v>1116.193996151541</v>
+        <v>1368.743030426879</v>
       </c>
       <c r="X27" t="n">
-        <v>909.6670975571185</v>
+        <v>1162.216131832456</v>
       </c>
       <c r="Y27" t="n">
-        <v>703.9386617807689</v>
+        <v>956.4876960561065</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>146.1024075008815</v>
+        <v>146.1024075008813</v>
       </c>
       <c r="C28" t="n">
-        <v>120.7771507255716</v>
+        <v>120.7771507255714</v>
       </c>
       <c r="D28" t="n">
-        <v>113.968041845901</v>
+        <v>113.9680418459009</v>
       </c>
       <c r="E28" t="n">
-        <v>109.2103898766549</v>
+        <v>109.2103898766548</v>
       </c>
       <c r="F28" t="n">
-        <v>105.2765790825549</v>
+        <v>105.2765790825548</v>
       </c>
       <c r="G28" t="n">
-        <v>79.62975329756412</v>
+        <v>79.62975329756406</v>
       </c>
       <c r="H28" t="n">
-        <v>62.17219681452226</v>
+        <v>62.17219681452224</v>
       </c>
       <c r="I28" t="n">
-        <v>57.69093432675984</v>
+        <v>57.69093432675985</v>
       </c>
       <c r="J28" t="n">
-        <v>57.69093432675984</v>
+        <v>127.0085258584291</v>
       </c>
       <c r="K28" t="n">
-        <v>70.05747048168269</v>
+        <v>280.216965249761</v>
       </c>
       <c r="L28" t="n">
-        <v>141.6859942470404</v>
+        <v>492.6873922515277</v>
       </c>
       <c r="M28" t="n">
-        <v>237.7672107732653</v>
+        <v>600.7847870384888</v>
       </c>
       <c r="N28" t="n">
-        <v>467.8178853468601</v>
+        <v>689.9935583756746</v>
       </c>
       <c r="O28" t="n">
-        <v>675.7219312157797</v>
+        <v>757.0557010081851</v>
       </c>
       <c r="P28" t="n">
-        <v>850.7246014231446</v>
+        <v>932.05837121555</v>
       </c>
       <c r="Q28" t="n">
-        <v>932.0583712155506</v>
+        <v>932.05837121555</v>
       </c>
       <c r="R28" t="n">
-        <v>911.2761365768904</v>
+        <v>911.2761365768898</v>
       </c>
       <c r="S28" t="n">
-        <v>834.5054505356062</v>
+        <v>834.5054505356057</v>
       </c>
       <c r="T28" t="n">
-        <v>748.5810240876388</v>
+        <v>748.5810240876383</v>
       </c>
       <c r="U28" t="n">
-        <v>603.3538313664254</v>
+        <v>603.3538313664251</v>
       </c>
       <c r="V28" t="n">
-        <v>491.5641320297652</v>
+        <v>491.5641320297649</v>
       </c>
       <c r="W28" t="n">
-        <v>346.2832955007045</v>
+        <v>346.2832955007042</v>
       </c>
       <c r="X28" t="n">
-        <v>261.5602538757917</v>
+        <v>261.5602538757914</v>
       </c>
       <c r="Y28" t="n">
-        <v>184.3035618110212</v>
+        <v>184.303561811021</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1522.662178078604</v>
+        <v>1522.662178078603</v>
       </c>
       <c r="C29" t="n">
-        <v>1295.671726608607</v>
+        <v>1295.671726608606</v>
       </c>
       <c r="D29" t="n">
-        <v>1079.166490213705</v>
+        <v>1079.166490213704</v>
       </c>
       <c r="E29" t="n">
-        <v>835.8801396766928</v>
+        <v>835.8801396766917</v>
       </c>
       <c r="F29" t="n">
-        <v>568.1737611343742</v>
+        <v>568.1737611343731</v>
       </c>
       <c r="G29" t="n">
-        <v>293.3585773929692</v>
+        <v>293.3585773929681</v>
       </c>
       <c r="H29" t="n">
         <v>100.912831357306</v>
@@ -6473,7 +6473,7 @@
         <v>1467.163158962141</v>
       </c>
       <c r="N29" t="n">
-        <v>1929.276131839058</v>
+        <v>1929.276131839059</v>
       </c>
       <c r="O29" t="n">
         <v>2327.356844599245</v>
@@ -6488,25 +6488,25 @@
         <v>2884.546716337993</v>
       </c>
       <c r="S29" t="n">
-        <v>2832.346383093183</v>
+        <v>2832.346383093182</v>
       </c>
       <c r="T29" t="n">
         <v>2753.144032471987</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.869931390368</v>
+        <v>2642.869931390367</v>
       </c>
       <c r="V29" t="n">
-        <v>2454.719756846051</v>
+        <v>2454.71975684605</v>
       </c>
       <c r="W29" t="n">
-        <v>2244.350495960284</v>
+        <v>2244.350495960283</v>
       </c>
       <c r="X29" t="n">
-        <v>2013.444384437533</v>
+        <v>2013.444384437532</v>
       </c>
       <c r="Y29" t="n">
-        <v>1766.552947035927</v>
+        <v>1766.552947035926</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>766.4802896241796</v>
+        <v>766.4802896241795</v>
       </c>
       <c r="C30" t="n">
-        <v>593.7271745459968</v>
+        <v>593.7271745459966</v>
       </c>
       <c r="D30" t="n">
-        <v>446.1388679049407</v>
+        <v>446.1388679049405</v>
       </c>
       <c r="E30" t="n">
-        <v>288.5293389077954</v>
+        <v>288.5293389077951</v>
       </c>
       <c r="F30" t="n">
-        <v>194.8053602573165</v>
+        <v>143.573548924412</v>
       </c>
       <c r="G30" t="n">
         <v>57.69093432675985</v>
@@ -6567,25 +6567,25 @@
         <v>2136.71153744057</v>
       </c>
       <c r="S30" t="n">
-        <v>1971.29531101012</v>
+        <v>2114.996875377439</v>
       </c>
       <c r="T30" t="n">
-        <v>1915.750184997627</v>
+        <v>2059.451749364945</v>
       </c>
       <c r="U30" t="n">
-        <v>1688.842345890259</v>
+        <v>1832.543910257578</v>
       </c>
       <c r="V30" t="n">
-        <v>1454.59110241586</v>
+        <v>1598.292666783179</v>
       </c>
       <c r="W30" t="n">
-        <v>1202.076610749193</v>
+        <v>1345.778175116512</v>
       </c>
       <c r="X30" t="n">
-        <v>995.5497121547709</v>
+        <v>1139.251276522089</v>
       </c>
       <c r="Y30" t="n">
-        <v>789.8212763784213</v>
+        <v>933.5228407457399</v>
       </c>
     </row>
     <row r="31">
@@ -6677,19 +6677,19 @@
         <v>1508.735761406424</v>
       </c>
       <c r="C32" t="n">
-        <v>1283.651439592676</v>
+        <v>1283.651439592675</v>
       </c>
       <c r="D32" t="n">
-        <v>1069.052332854022</v>
+        <v>1069.052332854021</v>
       </c>
       <c r="E32" t="n">
-        <v>827.6721119732574</v>
+        <v>827.6721119732568</v>
       </c>
       <c r="F32" t="n">
-        <v>561.8718630871867</v>
+        <v>561.8718630871863</v>
       </c>
       <c r="G32" t="n">
-        <v>288.9628090020296</v>
+        <v>288.9628090020295</v>
       </c>
       <c r="H32" t="n">
         <v>98.42319262261476</v>
@@ -6707,10 +6707,10 @@
         <v>999.9169050693297</v>
       </c>
       <c r="M32" t="n">
-        <v>1428.646716659534</v>
+        <v>1474.052440588053</v>
       </c>
       <c r="N32" t="n">
-        <v>1892.62788721254</v>
+        <v>1938.033611141059</v>
       </c>
       <c r="O32" t="n">
         <v>2292.576797648815</v>
@@ -6728,10 +6728,10 @@
         <v>2805.077058827267</v>
       </c>
       <c r="T32" t="n">
-        <v>2727.78083786232</v>
+        <v>2727.780837862319</v>
       </c>
       <c r="U32" t="n">
-        <v>2619.412866436949</v>
+        <v>2619.412866436948</v>
       </c>
       <c r="V32" t="n">
         <v>2433.168821548879</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>680.0141659480839</v>
+        <v>720.8960157288076</v>
       </c>
       <c r="C33" t="n">
-        <v>507.2610508699012</v>
+        <v>693.7505946741915</v>
       </c>
       <c r="D33" t="n">
-        <v>359.672744228845</v>
+        <v>546.1622880331353</v>
       </c>
       <c r="E33" t="n">
-        <v>202.0632152316997</v>
+        <v>388.55275903599</v>
       </c>
       <c r="F33" t="n">
-        <v>57.10742524831659</v>
+        <v>243.5969690526069</v>
       </c>
       <c r="G33" t="n">
-        <v>57.10742524831659</v>
+        <v>243.5969690526069</v>
       </c>
       <c r="H33" t="n">
-        <v>57.10742524831659</v>
+        <v>134.7494991445881</v>
       </c>
       <c r="I33" t="n">
         <v>57.10742524831659</v>
@@ -6804,25 +6804,25 @@
         <v>2136.128028362126</v>
       </c>
       <c r="S33" t="n">
-        <v>2026.624622045095</v>
+        <v>2067.506471825819</v>
       </c>
       <c r="T33" t="n">
-        <v>1827.377931665283</v>
+        <v>2013.867475469574</v>
       </c>
       <c r="U33" t="n">
-        <v>1746.077786581482</v>
+        <v>1786.959636362206</v>
       </c>
       <c r="V33" t="n">
-        <v>1511.826543107083</v>
+        <v>1552.708392887807</v>
       </c>
       <c r="W33" t="n">
-        <v>1259.312051440416</v>
+        <v>1300.19390122114</v>
       </c>
       <c r="X33" t="n">
-        <v>1052.785152845994</v>
+        <v>1093.667002626717</v>
       </c>
       <c r="Y33" t="n">
-        <v>847.0567170696444</v>
+        <v>887.938566850368</v>
       </c>
     </row>
     <row r="34">
@@ -6856,25 +6856,25 @@
         <v>57.10742524831659</v>
       </c>
       <c r="J34" t="n">
-        <v>57.10742524831659</v>
+        <v>128.2932144560744</v>
       </c>
       <c r="K34" t="n">
-        <v>69.47396140323943</v>
+        <v>283.369851523495</v>
       </c>
       <c r="L34" t="n">
-        <v>141.1024851685972</v>
+        <v>497.7084762013504</v>
       </c>
       <c r="M34" t="n">
-        <v>369.9277209539255</v>
+        <v>627.3431392279925</v>
       </c>
       <c r="N34" t="n">
-        <v>601.8465932036089</v>
+        <v>716.5519105651783</v>
       </c>
       <c r="O34" t="n">
-        <v>811.6188367486171</v>
+        <v>783.6140531976889</v>
       </c>
       <c r="P34" t="n">
-        <v>900.9767876371394</v>
+        <v>817.7748201686447</v>
       </c>
       <c r="Q34" t="n">
         <v>900.9767876371394</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1150.441821120872</v>
+        <v>1150.441821120873</v>
       </c>
       <c r="C35" t="n">
-        <v>975.651702895685</v>
+        <v>975.651702895686</v>
       </c>
       <c r="D35" t="n">
-        <v>811.3467997455932</v>
+        <v>811.3467997455941</v>
       </c>
       <c r="E35" t="n">
-        <v>620.2607824533911</v>
+        <v>620.260782453392</v>
       </c>
       <c r="F35" t="n">
-        <v>404.7547371558826</v>
+        <v>404.7547371558835</v>
       </c>
       <c r="G35" t="n">
-        <v>182.1398866592883</v>
+        <v>182.1398866592884</v>
       </c>
       <c r="H35" t="n">
-        <v>41.89447386843562</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="I35" t="n">
         <v>50.69423920203566</v>
       </c>
       <c r="J35" t="n">
-        <v>286.0056120480174</v>
+        <v>94.00216219837</v>
       </c>
       <c r="K35" t="n">
-        <v>573.9334565671202</v>
+        <v>473.1895549302216</v>
       </c>
       <c r="L35" t="n">
-        <v>858.1207677721015</v>
+        <v>757.3768661352029</v>
       </c>
       <c r="M35" t="n">
-        <v>1189.546202378327</v>
+        <v>1088.802300741428</v>
       </c>
       <c r="N35" t="n">
-        <v>1510.817272018835</v>
+        <v>1410.073370381936</v>
       </c>
       <c r="O35" t="n">
-        <v>1768.056081542612</v>
+        <v>1667.312179905714</v>
       </c>
       <c r="P35" t="n">
-        <v>1950.664660872957</v>
+        <v>1849.920759236058</v>
       </c>
       <c r="Q35" t="n">
-        <v>2010.616697405351</v>
+        <v>2010.616697405353</v>
       </c>
       <c r="R35" t="n">
-        <v>2094.723693421781</v>
+        <v>2094.723693421782</v>
       </c>
       <c r="S35" t="n">
-        <v>2094.723693421781</v>
+        <v>2094.723693421782</v>
       </c>
       <c r="T35" t="n">
-        <v>2067.721676045395</v>
+        <v>2067.721676045397</v>
       </c>
       <c r="U35" t="n">
-        <v>2009.647908208586</v>
+        <v>2009.647908208587</v>
       </c>
       <c r="V35" t="n">
-        <v>1873.698066909079</v>
+        <v>1873.69806690908</v>
       </c>
       <c r="W35" t="n">
-        <v>1715.529139268122</v>
+        <v>1715.529139268123</v>
       </c>
       <c r="X35" t="n">
-        <v>1536.823360990181</v>
+        <v>1536.823360990182</v>
       </c>
       <c r="Y35" t="n">
-        <v>1342.132256833384</v>
+        <v>1342.132256833386</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>815.6520692248671</v>
+        <v>801.9156404987598</v>
       </c>
       <c r="C36" t="n">
-        <v>815.6520692248671</v>
+        <v>629.1625254205769</v>
       </c>
       <c r="D36" t="n">
-        <v>668.063762583811</v>
+        <v>481.5742187795207</v>
       </c>
       <c r="E36" t="n">
-        <v>510.4542335866657</v>
+        <v>323.9646897823754</v>
       </c>
       <c r="F36" t="n">
-        <v>365.4984436032826</v>
+        <v>179.0088997989923</v>
       </c>
       <c r="G36" t="n">
-        <v>228.3840176727259</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="H36" t="n">
-        <v>119.5365477647071</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="I36" t="n">
-        <v>41.89447386843562</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="J36" t="n">
-        <v>49.27903773749489</v>
+        <v>49.27903773749625</v>
       </c>
       <c r="K36" t="n">
-        <v>233.2712930250568</v>
+        <v>233.2712930250582</v>
       </c>
       <c r="L36" t="n">
-        <v>541.5211932769807</v>
+        <v>541.5211932769821</v>
       </c>
       <c r="M36" t="n">
-        <v>954.0344817371911</v>
+        <v>954.0344817371924</v>
       </c>
       <c r="N36" t="n">
-        <v>1392.864501474776</v>
+        <v>1392.864501474777</v>
       </c>
       <c r="O36" t="n">
-        <v>1726.680218438268</v>
+        <v>1726.680218438269</v>
       </c>
       <c r="P36" t="n">
-        <v>1978.170219936249</v>
+        <v>1978.170219936251</v>
       </c>
       <c r="Q36" t="n">
-        <v>2094.723693421781</v>
+        <v>2094.723693421782</v>
       </c>
       <c r="R36" t="n">
-        <v>2094.723693421781</v>
+        <v>2094.723693421782</v>
       </c>
       <c r="S36" t="n">
-        <v>2094.723693421781</v>
+        <v>2094.723693421782</v>
       </c>
       <c r="T36" t="n">
-        <v>1912.721631353504</v>
+        <v>2091.378900654099</v>
       </c>
       <c r="U36" t="n">
-        <v>1881.715689858265</v>
+        <v>1867.979261132158</v>
       </c>
       <c r="V36" t="n">
-        <v>1647.464446383866</v>
+        <v>1633.728017657759</v>
       </c>
       <c r="W36" t="n">
-        <v>1394.949954717199</v>
+        <v>1381.213525991092</v>
       </c>
       <c r="X36" t="n">
-        <v>1188.423056122777</v>
+        <v>1174.68662739667</v>
       </c>
       <c r="Y36" t="n">
-        <v>982.6946203464275</v>
+        <v>968.9581916203202</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.92284018687103</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="C37" t="n">
-        <v>42.92284018687103</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="D37" t="n">
-        <v>42.92284018687103</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="E37" t="n">
-        <v>42.92284018687103</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="F37" t="n">
-        <v>42.92284018687103</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="G37" t="n">
-        <v>42.92284018687103</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="H37" t="n">
-        <v>42.92284018687103</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="I37" t="n">
-        <v>42.92284018687103</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="J37" t="n">
-        <v>42.92284018687103</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="K37" t="n">
-        <v>55.28937634179387</v>
+        <v>54.26101002335848</v>
       </c>
       <c r="L37" t="n">
-        <v>126.9179001071516</v>
+        <v>125.8895337887162</v>
       </c>
       <c r="M37" t="n">
-        <v>213.0330349799822</v>
+        <v>212.0046686615468</v>
       </c>
       <c r="N37" t="n">
-        <v>302.241806317168</v>
+        <v>301.2134399987326</v>
       </c>
       <c r="O37" t="n">
-        <v>369.3039489496785</v>
+        <v>368.2755826312431</v>
       </c>
       <c r="P37" t="n">
-        <v>403.4647159206343</v>
+        <v>402.436349602199</v>
       </c>
       <c r="Q37" t="n">
-        <v>403.4647159206343</v>
+        <v>402.436349602199</v>
       </c>
       <c r="R37" t="n">
-        <v>403.4647159206343</v>
+        <v>403.4647159206344</v>
       </c>
       <c r="S37" t="n">
-        <v>378.8943631241602</v>
+        <v>378.8943631241603</v>
       </c>
       <c r="T37" t="n">
-        <v>345.1702699210028</v>
+        <v>345.170269921003</v>
       </c>
       <c r="U37" t="n">
-        <v>252.1434104445996</v>
+        <v>252.1434104445997</v>
       </c>
       <c r="V37" t="n">
-        <v>192.5540443527494</v>
+        <v>192.5540443527495</v>
       </c>
       <c r="W37" t="n">
-        <v>99.4735410684988</v>
+        <v>99.47354106849889</v>
       </c>
       <c r="X37" t="n">
-        <v>66.95083268839598</v>
+        <v>66.95083268839603</v>
       </c>
       <c r="Y37" t="n">
-        <v>41.89447386843562</v>
+        <v>41.89447386843565</v>
       </c>
     </row>
     <row r="38">
@@ -7151,73 +7151,73 @@
         <v>1150.441821120873</v>
       </c>
       <c r="C38" t="n">
-        <v>975.6517028956856</v>
+        <v>975.651702895686</v>
       </c>
       <c r="D38" t="n">
-        <v>811.3467997455937</v>
+        <v>811.3467997455941</v>
       </c>
       <c r="E38" t="n">
-        <v>620.2607824533916</v>
+        <v>620.260782453392</v>
       </c>
       <c r="F38" t="n">
-        <v>404.754737155883</v>
+        <v>404.7547371558835</v>
       </c>
       <c r="G38" t="n">
-        <v>182.1398866592883</v>
+        <v>182.1398866592884</v>
       </c>
       <c r="H38" t="n">
-        <v>41.89447386843561</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="I38" t="n">
-        <v>50.69423920203568</v>
+        <v>50.69423920203566</v>
       </c>
       <c r="J38" t="n">
-        <v>286.0056120480174</v>
+        <v>94.00216219837</v>
       </c>
       <c r="K38" t="n">
-        <v>573.9334565671197</v>
+        <v>281.1861050805742</v>
       </c>
       <c r="L38" t="n">
-        <v>858.1207677721011</v>
+        <v>565.3734162855555</v>
       </c>
       <c r="M38" t="n">
-        <v>1189.546202378326</v>
+        <v>1083.817530407447</v>
       </c>
       <c r="N38" t="n">
-        <v>1510.817272018835</v>
+        <v>1405.088600047955</v>
       </c>
       <c r="O38" t="n">
-        <v>1768.056081542612</v>
+        <v>1662.327409571732</v>
       </c>
       <c r="P38" t="n">
-        <v>1950.664660872956</v>
+        <v>1844.935988902076</v>
       </c>
       <c r="Q38" t="n">
-        <v>2010.616697405351</v>
+        <v>2010.616697405353</v>
       </c>
       <c r="R38" t="n">
-        <v>2094.72369342178</v>
+        <v>2094.723693421782</v>
       </c>
       <c r="S38" t="n">
-        <v>2094.72369342178</v>
+        <v>2094.723693421782</v>
       </c>
       <c r="T38" t="n">
-        <v>2067.721676045395</v>
+        <v>2067.721676045397</v>
       </c>
       <c r="U38" t="n">
-        <v>2009.647908208586</v>
+        <v>2009.647908208587</v>
       </c>
       <c r="V38" t="n">
-        <v>1873.698066909079</v>
+        <v>1873.69806690908</v>
       </c>
       <c r="W38" t="n">
-        <v>1715.529139268123</v>
+        <v>1715.529139268124</v>
       </c>
       <c r="X38" t="n">
         <v>1536.823360990182</v>
       </c>
       <c r="Y38" t="n">
-        <v>1342.132256833385</v>
+        <v>1342.132256833386</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>815.6520692248671</v>
+        <v>654.3273338577035</v>
       </c>
       <c r="C39" t="n">
-        <v>815.6520692248671</v>
+        <v>481.5742187795207</v>
       </c>
       <c r="D39" t="n">
-        <v>668.0637625838109</v>
+        <v>481.5742187795207</v>
       </c>
       <c r="E39" t="n">
-        <v>510.4542335866656</v>
+        <v>323.9646897823754</v>
       </c>
       <c r="F39" t="n">
-        <v>365.4984436032825</v>
+        <v>179.0088997989923</v>
       </c>
       <c r="G39" t="n">
-        <v>228.3840176727259</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="H39" t="n">
-        <v>119.5365477647071</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="I39" t="n">
-        <v>41.89447386843561</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="J39" t="n">
-        <v>49.27903773749443</v>
+        <v>75.47042129795942</v>
       </c>
       <c r="K39" t="n">
-        <v>233.2712930250564</v>
+        <v>259.4626765855214</v>
       </c>
       <c r="L39" t="n">
-        <v>541.5211932769803</v>
+        <v>567.7125768374453</v>
       </c>
       <c r="M39" t="n">
-        <v>954.0344817371906</v>
+        <v>980.2258652976557</v>
       </c>
       <c r="N39" t="n">
-        <v>1392.864501474776</v>
+        <v>1419.055885035241</v>
       </c>
       <c r="O39" t="n">
-        <v>1726.680218438267</v>
+        <v>1752.871601998732</v>
       </c>
       <c r="P39" t="n">
-        <v>1978.170219936249</v>
+        <v>2004.361603496714</v>
       </c>
       <c r="Q39" t="n">
-        <v>2094.72369342178</v>
+        <v>2094.723693421782</v>
       </c>
       <c r="R39" t="n">
-        <v>2094.72369342178</v>
+        <v>2094.723693421782</v>
       </c>
       <c r="S39" t="n">
-        <v>2094.72369342178</v>
+        <v>2094.723693421782</v>
       </c>
       <c r="T39" t="n">
-        <v>1912.721631353504</v>
+        <v>1895.47700304197</v>
       </c>
       <c r="U39" t="n">
-        <v>1881.715689858265</v>
+        <v>1720.390954491102</v>
       </c>
       <c r="V39" t="n">
-        <v>1647.464446383866</v>
+        <v>1486.139711016703</v>
       </c>
       <c r="W39" t="n">
-        <v>1394.949954717199</v>
+        <v>1233.625219350036</v>
       </c>
       <c r="X39" t="n">
-        <v>1188.423056122777</v>
+        <v>1027.098320755613</v>
       </c>
       <c r="Y39" t="n">
-        <v>982.6946203464275</v>
+        <v>821.3698849792639</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>42.92284018687069</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="C40" t="n">
-        <v>42.92284018687069</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="D40" t="n">
-        <v>42.92284018687069</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="E40" t="n">
-        <v>42.92284018687069</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="F40" t="n">
-        <v>42.92284018687069</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="G40" t="n">
-        <v>42.92284018687069</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="H40" t="n">
-        <v>42.92284018687069</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="I40" t="n">
-        <v>42.92284018687069</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="J40" t="n">
-        <v>42.92284018687069</v>
+        <v>41.89447386843565</v>
       </c>
       <c r="K40" t="n">
-        <v>55.28937634179353</v>
+        <v>54.26101002335848</v>
       </c>
       <c r="L40" t="n">
-        <v>126.9179001071513</v>
+        <v>125.8895337887162</v>
       </c>
       <c r="M40" t="n">
-        <v>213.0330349799819</v>
+        <v>212.0046686615468</v>
       </c>
       <c r="N40" t="n">
-        <v>302.2418063171676</v>
+        <v>302.2418063171681</v>
       </c>
       <c r="O40" t="n">
-        <v>369.3039489496782</v>
+        <v>369.3039489496786</v>
       </c>
       <c r="P40" t="n">
-        <v>403.464715920634</v>
+        <v>403.4647159206344</v>
       </c>
       <c r="Q40" t="n">
-        <v>403.464715920634</v>
+        <v>403.4647159206344</v>
       </c>
       <c r="R40" t="n">
-        <v>403.464715920634</v>
+        <v>403.4647159206344</v>
       </c>
       <c r="S40" t="n">
-        <v>378.89436312416</v>
+        <v>378.8943631241603</v>
       </c>
       <c r="T40" t="n">
-        <v>345.1702699210026</v>
+        <v>345.170269921003</v>
       </c>
       <c r="U40" t="n">
-        <v>252.1434104445994</v>
+        <v>252.1434104445997</v>
       </c>
       <c r="V40" t="n">
-        <v>192.5540443527493</v>
+        <v>192.5540443527495</v>
       </c>
       <c r="W40" t="n">
-        <v>99.47354106849872</v>
+        <v>99.47354106849889</v>
       </c>
       <c r="X40" t="n">
-        <v>66.95083268839593</v>
+        <v>66.95083268839603</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.89447386843561</v>
+        <v>41.89447386843565</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1150.441821120871</v>
+        <v>1150.441821120872</v>
       </c>
       <c r="C41" t="n">
-        <v>975.6517028956844</v>
+        <v>975.6517028956852</v>
       </c>
       <c r="D41" t="n">
-        <v>811.3467997455925</v>
+        <v>811.3467997455932</v>
       </c>
       <c r="E41" t="n">
-        <v>620.2607824533906</v>
+        <v>620.2607824533911</v>
       </c>
       <c r="F41" t="n">
-        <v>404.7547371558821</v>
+        <v>404.7547371558826</v>
       </c>
       <c r="G41" t="n">
-        <v>182.1398866592882</v>
+        <v>182.1398866592883</v>
       </c>
       <c r="H41" t="n">
-        <v>41.89447386843561</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="I41" t="n">
-        <v>50.69423920203571</v>
+        <v>50.69423920203564</v>
       </c>
       <c r="J41" t="n">
-        <v>286.0056120480175</v>
+        <v>194.746063835269</v>
       </c>
       <c r="K41" t="n">
-        <v>473.1895549302217</v>
+        <v>381.9300067174732</v>
       </c>
       <c r="L41" t="n">
-        <v>757.376866135203</v>
+        <v>666.1173179224545</v>
       </c>
       <c r="M41" t="n">
-        <v>1088.802300741428</v>
+        <v>997.5427525286798</v>
       </c>
       <c r="N41" t="n">
-        <v>1410.073370381937</v>
+        <v>1318.813822169188</v>
       </c>
       <c r="O41" t="n">
-        <v>1667.312179905714</v>
+        <v>1576.052631692965</v>
       </c>
       <c r="P41" t="n">
-        <v>1849.920759236058</v>
+        <v>1758.66121102331</v>
       </c>
       <c r="Q41" t="n">
-        <v>2010.616697405351</v>
+        <v>2010.616697405352</v>
       </c>
       <c r="R41" t="n">
-        <v>2094.72369342178</v>
+        <v>2094.723693421781</v>
       </c>
       <c r="S41" t="n">
-        <v>2094.723693421779</v>
+        <v>2094.723693421781</v>
       </c>
       <c r="T41" t="n">
-        <v>2067.721676045394</v>
+        <v>2067.721676045395</v>
       </c>
       <c r="U41" t="n">
-        <v>2009.647908208585</v>
+        <v>2009.647908208586</v>
       </c>
       <c r="V41" t="n">
-        <v>1873.698066909078</v>
+        <v>1873.698066909079</v>
       </c>
       <c r="W41" t="n">
-        <v>1715.529139268122</v>
+        <v>1715.529139268123</v>
       </c>
       <c r="X41" t="n">
-        <v>1536.82336099018</v>
+        <v>1536.823360990181</v>
       </c>
       <c r="Y41" t="n">
-        <v>1342.132256833384</v>
+        <v>1342.132256833385</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>401.1371327509087</v>
+        <v>492.0480994900202</v>
       </c>
       <c r="C42" t="n">
-        <v>228.3840176727259</v>
+        <v>492.0480994900202</v>
       </c>
       <c r="D42" t="n">
-        <v>228.3840176727259</v>
+        <v>344.4597928489641</v>
       </c>
       <c r="E42" t="n">
-        <v>228.3840176727259</v>
+        <v>186.8502638518188</v>
       </c>
       <c r="F42" t="n">
-        <v>228.3840176727259</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="G42" t="n">
-        <v>228.3840176727259</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="H42" t="n">
-        <v>119.5365477647071</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="I42" t="n">
-        <v>41.89447386843561</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="J42" t="n">
-        <v>49.27903773749443</v>
+        <v>75.4704212979594</v>
       </c>
       <c r="K42" t="n">
-        <v>233.2712930250564</v>
+        <v>259.4626765855213</v>
       </c>
       <c r="L42" t="n">
-        <v>541.5211932769803</v>
+        <v>567.7125768374452</v>
       </c>
       <c r="M42" t="n">
-        <v>954.0344817371906</v>
+        <v>980.2258652976557</v>
       </c>
       <c r="N42" t="n">
-        <v>1392.864501474776</v>
+        <v>1419.055885035241</v>
       </c>
       <c r="O42" t="n">
-        <v>1726.680218438267</v>
+        <v>1726.680218438268</v>
       </c>
       <c r="P42" t="n">
-        <v>1978.170219936249</v>
+        <v>1978.17021993625</v>
       </c>
       <c r="Q42" t="n">
-        <v>2094.72369342178</v>
+        <v>2094.723693421781</v>
       </c>
       <c r="R42" t="n">
         <v>2016.627879753607</v>
       </c>
       <c r="S42" t="n">
-        <v>1851.211653323157</v>
+        <v>1851.211653323158</v>
       </c>
       <c r="T42" t="n">
-        <v>1651.964962943345</v>
+        <v>1651.964962943346</v>
       </c>
       <c r="U42" t="n">
-        <v>1467.200753384307</v>
+        <v>1558.111720123419</v>
       </c>
       <c r="V42" t="n">
-        <v>1232.949509909908</v>
+        <v>1323.86047664902</v>
       </c>
       <c r="W42" t="n">
-        <v>980.4350182432412</v>
+        <v>1071.345984982353</v>
       </c>
       <c r="X42" t="n">
-        <v>773.9081196488187</v>
+        <v>864.8190863879303</v>
       </c>
       <c r="Y42" t="n">
-        <v>568.1796838724691</v>
+        <v>659.0906506115807</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.92284018687058</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="C43" t="n">
-        <v>42.92284018687058</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="D43" t="n">
-        <v>42.92284018687058</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="E43" t="n">
-        <v>42.92284018687058</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="F43" t="n">
-        <v>42.92284018687058</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="G43" t="n">
-        <v>42.92284018687058</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="H43" t="n">
-        <v>42.92284018687058</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="I43" t="n">
-        <v>42.92284018687058</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="J43" t="n">
-        <v>42.92284018687058</v>
+        <v>42.92284018687115</v>
       </c>
       <c r="K43" t="n">
-        <v>55.28937634179341</v>
+        <v>55.28937634179398</v>
       </c>
       <c r="L43" t="n">
-        <v>126.9179001071511</v>
+        <v>126.9179001071517</v>
       </c>
       <c r="M43" t="n">
-        <v>213.0330349799818</v>
+        <v>213.0330349799823</v>
       </c>
       <c r="N43" t="n">
-        <v>302.2418063171675</v>
+        <v>302.2418063171681</v>
       </c>
       <c r="O43" t="n">
-        <v>369.303948949678</v>
+        <v>369.3039489496786</v>
       </c>
       <c r="P43" t="n">
-        <v>403.4647159206339</v>
+        <v>403.4647159206344</v>
       </c>
       <c r="Q43" t="n">
-        <v>403.4647159206339</v>
+        <v>403.4647159206344</v>
       </c>
       <c r="R43" t="n">
-        <v>403.4647159206339</v>
+        <v>403.4647159206344</v>
       </c>
       <c r="S43" t="n">
-        <v>378.8943631241598</v>
+        <v>378.8943631241603</v>
       </c>
       <c r="T43" t="n">
-        <v>345.1702699210025</v>
+        <v>345.170269921003</v>
       </c>
       <c r="U43" t="n">
-        <v>252.1434104445993</v>
+        <v>252.1434104445997</v>
       </c>
       <c r="V43" t="n">
-        <v>192.5540443527492</v>
+        <v>192.5540443527495</v>
       </c>
       <c r="W43" t="n">
-        <v>99.47354106849866</v>
+        <v>99.47354106849886</v>
       </c>
       <c r="X43" t="n">
-        <v>66.95083268839591</v>
+        <v>66.95083268839602</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.89447386843561</v>
+        <v>41.89447386843563</v>
       </c>
     </row>
     <row r="44">
@@ -7625,13 +7625,13 @@
         <v>1150.441821120873</v>
       </c>
       <c r="C44" t="n">
-        <v>975.6517028956855</v>
+        <v>975.6517028956856</v>
       </c>
       <c r="D44" t="n">
         <v>811.3467997455937</v>
       </c>
       <c r="E44" t="n">
-        <v>620.2607824533915</v>
+        <v>620.2607824533916</v>
       </c>
       <c r="F44" t="n">
         <v>404.754737155883</v>
@@ -7640,13 +7640,13 @@
         <v>182.1398866592883</v>
       </c>
       <c r="H44" t="n">
-        <v>41.89447386843562</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="I44" t="n">
-        <v>50.69423920203566</v>
+        <v>50.69423920203564</v>
       </c>
       <c r="J44" t="n">
-        <v>94.00216219837</v>
+        <v>94.00216219836999</v>
       </c>
       <c r="K44" t="n">
         <v>281.1861050805742</v>
@@ -7655,19 +7655,19 @@
         <v>565.3734162855555</v>
       </c>
       <c r="M44" t="n">
-        <v>896.7988508917808</v>
+        <v>997.5427525286798</v>
       </c>
       <c r="N44" t="n">
-        <v>1218.069920532289</v>
+        <v>1318.813822169188</v>
       </c>
       <c r="O44" t="n">
-        <v>1475.308730056066</v>
+        <v>1576.052631692965</v>
       </c>
       <c r="P44" t="n">
-        <v>1758.661211023309</v>
+        <v>1950.664660872957</v>
       </c>
       <c r="Q44" t="n">
-        <v>2010.616697405351</v>
+        <v>2010.616697405352</v>
       </c>
       <c r="R44" t="n">
         <v>2094.723693421781</v>
@@ -7676,13 +7676,13 @@
         <v>2094.723693421781</v>
       </c>
       <c r="T44" t="n">
-        <v>2067.721676045395</v>
+        <v>2067.721676045396</v>
       </c>
       <c r="U44" t="n">
         <v>2009.647908208586</v>
       </c>
       <c r="V44" t="n">
-        <v>1873.698066909079</v>
+        <v>1873.69806690908</v>
       </c>
       <c r="W44" t="n">
         <v>1715.529139268123</v>
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.311627245158</v>
+        <v>664.801214568203</v>
       </c>
       <c r="C45" t="n">
-        <v>547.5585121669751</v>
+        <v>492.0480994900202</v>
       </c>
       <c r="D45" t="n">
-        <v>399.970205525919</v>
+        <v>344.4597928489641</v>
       </c>
       <c r="E45" t="n">
-        <v>242.3606765287737</v>
+        <v>186.8502638518188</v>
       </c>
       <c r="F45" t="n">
-        <v>97.40488654539053</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="G45" t="n">
-        <v>41.89447386843562</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="H45" t="n">
-        <v>41.89447386843562</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="I45" t="n">
-        <v>41.89447386843562</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="J45" t="n">
-        <v>75.47042129795939</v>
+        <v>75.4704212979594</v>
       </c>
       <c r="K45" t="n">
         <v>259.4626765855213</v>
@@ -7734,16 +7734,16 @@
         <v>567.7125768374452</v>
       </c>
       <c r="M45" t="n">
-        <v>954.0344817371911</v>
+        <v>980.2258652976557</v>
       </c>
       <c r="N45" t="n">
-        <v>1392.864501474776</v>
+        <v>1419.055885035241</v>
       </c>
       <c r="O45" t="n">
-        <v>1726.680218438268</v>
+        <v>1752.871601998732</v>
       </c>
       <c r="P45" t="n">
-        <v>1978.170219936249</v>
+        <v>2004.361603496714</v>
       </c>
       <c r="Q45" t="n">
         <v>2094.723693421781</v>
@@ -7752,25 +7752,25 @@
         <v>2016.627879753607</v>
       </c>
       <c r="S45" t="n">
-        <v>2016.627879753607</v>
+        <v>1851.211653323158</v>
       </c>
       <c r="T45" t="n">
-        <v>2013.283086985924</v>
+        <v>1847.866860555475</v>
       </c>
       <c r="U45" t="n">
-        <v>1786.375247878556</v>
+        <v>1730.864835201601</v>
       </c>
       <c r="V45" t="n">
-        <v>1552.124004404157</v>
+        <v>1496.613591727202</v>
       </c>
       <c r="W45" t="n">
-        <v>1299.60951273749</v>
+        <v>1244.099100060535</v>
       </c>
       <c r="X45" t="n">
-        <v>1093.082614143068</v>
+        <v>1037.572201466113</v>
       </c>
       <c r="Y45" t="n">
-        <v>887.3541783667184</v>
+        <v>831.8437656897635</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.89447386843562</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="C46" t="n">
-        <v>41.89447386843562</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="D46" t="n">
-        <v>41.89447386843562</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="E46" t="n">
-        <v>41.89447386843562</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="F46" t="n">
-        <v>41.89447386843562</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="G46" t="n">
-        <v>41.89447386843562</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="H46" t="n">
-        <v>41.89447386843562</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="I46" t="n">
-        <v>41.89447386843562</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="J46" t="n">
-        <v>41.89447386843562</v>
+        <v>41.89447386843563</v>
       </c>
       <c r="K46" t="n">
-        <v>54.26101002335845</v>
+        <v>54.26101002335846</v>
       </c>
       <c r="L46" t="n">
         <v>125.8895337887162</v>
@@ -7819,37 +7819,37 @@
         <v>301.2134399987326</v>
       </c>
       <c r="O46" t="n">
-        <v>368.2755826312431</v>
+        <v>369.3039489496786</v>
       </c>
       <c r="P46" t="n">
-        <v>402.4363496021989</v>
+        <v>403.4647159206344</v>
       </c>
       <c r="Q46" t="n">
-        <v>402.4363496021989</v>
+        <v>403.4647159206344</v>
       </c>
       <c r="R46" t="n">
-        <v>403.4647159206343</v>
+        <v>403.4647159206344</v>
       </c>
       <c r="S46" t="n">
-        <v>378.8943631241602</v>
+        <v>378.8943631241603</v>
       </c>
       <c r="T46" t="n">
-        <v>345.1702699210028</v>
+        <v>345.170269921003</v>
       </c>
       <c r="U46" t="n">
-        <v>252.1434104445996</v>
+        <v>252.1434104445997</v>
       </c>
       <c r="V46" t="n">
-        <v>192.5540443527494</v>
+        <v>192.5540443527495</v>
       </c>
       <c r="W46" t="n">
-        <v>99.4735410684988</v>
+        <v>99.47354106849886</v>
       </c>
       <c r="X46" t="n">
-        <v>66.95083268839598</v>
+        <v>66.95083268839602</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.89447386843562</v>
+        <v>41.89447386843563</v>
       </c>
     </row>
   </sheetData>
@@ -8453,16 +8453,16 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>221.8814682493969</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L8" t="n">
         <v>229.8722545957376</v>
       </c>
       <c r="M8" t="n">
-        <v>224.5875773965909</v>
+        <v>227.5271966636498</v>
       </c>
       <c r="N8" t="n">
-        <v>226.6173562737351</v>
+        <v>230.971600487217</v>
       </c>
       <c r="O8" t="n">
         <v>231.6396196166854</v>
@@ -8529,7 +8529,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>130.9605494805409</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
         <v>141.6892664805409</v>
@@ -8538,10 +8538,10 @@
         <v>142.3843837659182</v>
       </c>
       <c r="M9" t="n">
-        <v>145.5798449997394</v>
+        <v>145.8745465545087</v>
       </c>
       <c r="N9" t="n">
-        <v>128.05816928125</v>
+        <v>135.0573312070215</v>
       </c>
       <c r="O9" t="n">
         <v>139.0313383333333</v>
@@ -8769,7 +8769,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>131.0314731982513</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
@@ -8778,13 +8778,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>480.5531952393398</v>
+        <v>82.51051740109361</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>77.17097484211911</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
         <v>218.4803792452831</v>
@@ -9015,13 +9015,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>480.5531952393399</v>
+        <v>480.5531952393398</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>270.6552441761951</v>
+        <v>270.6552441761949</v>
       </c>
       <c r="Q15" t="n">
         <v>100.7495979467662</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>175.8604797789567</v>
+        <v>175.8604797789568</v>
       </c>
       <c r="K17" t="n">
         <v>337.1112290740114</v>
@@ -9246,19 +9246,19 @@
         <v>89.19308357635256</v>
       </c>
       <c r="L18" t="n">
-        <v>385.6739591155975</v>
+        <v>325.1279239062578</v>
       </c>
       <c r="M18" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>480.5531952393399</v>
+        <v>480.5531952393398</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>270.6552441761951</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
         <v>100.7495979467662</v>
@@ -9477,10 +9477,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21957834036481</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>89.19308357635256</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
@@ -9489,16 +9489,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>480.5531952393399</v>
+        <v>82.51051740109361</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>270.6552441761951</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>100.7495979467662</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9720,19 +9720,19 @@
         <v>89.19308357635256</v>
       </c>
       <c r="L24" t="n">
-        <v>385.6739591155975</v>
+        <v>325.1279239062578</v>
       </c>
       <c r="M24" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>480.5531952393399</v>
+        <v>480.5531952393398</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>270.6552441761951</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
         <v>100.7495979467662</v>
@@ -10662,7 +10662,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>104.678733763657</v>
+        <v>104.6787337636583</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10899,7 +10899,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>104.6787337636565</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10920,7 +10920,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>192.0244362549162</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11136,7 +11136,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>104.6787337636565</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11151,7 +11151,7 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O42" t="n">
-        <v>409.6168120477987</v>
+        <v>383.1608690574309</v>
       </c>
       <c r="P42" t="n">
         <v>331.2012793855346</v>
@@ -11382,7 +11382,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>457.8773233096317</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
         <v>498.5160693172957</v>
@@ -11394,7 +11394,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>218.4803792452831</v>
+        <v>192.0244362549152</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>261.8473936573216</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>245.1160793448692</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>234.7357164205249</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>261.249019421214</v>
       </c>
       <c r="F11" t="n">
         <v>285.4248471464674</v>
       </c>
       <c r="G11" t="n">
-        <v>292.462564293563</v>
+        <v>30.38472564295539</v>
       </c>
       <c r="H11" t="n">
-        <v>210.9168209648782</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>63.18521044981276</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>72.07386230193401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>151.4019837659324</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>248.9925827970959</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.8180554171623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>9.187361201681664</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>9.187361201682052</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.8473936573215</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>245.1160793448691</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>234.7357164205249</v>
       </c>
       <c r="E14" t="n">
-        <v>261.2490194212139</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>210.9168209648781</v>
+        <v>210.9168209648782</v>
       </c>
       <c r="I14" t="n">
-        <v>63.18521044981267</v>
+        <v>63.18521044981271</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>72.07386230193393</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>98.80585950455566</v>
+        <v>98.80585950455551</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>129.5668924603754</v>
       </c>
       <c r="V14" t="n">
-        <v>206.6642051884458</v>
+        <v>206.6642051884459</v>
       </c>
       <c r="W14" t="n">
-        <v>228.661100666481</v>
+        <v>228.6611006664811</v>
       </c>
       <c r="X14" t="n">
-        <v>50.61338223045583</v>
+        <v>36.36496938515631</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.187361201679961</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>9.187361201680828</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-3.637961339241345e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40607.81888778703</v>
+        <v>40607.81888778701</v>
       </c>
       <c r="C2" t="n">
-        <v>40607.81888778703</v>
+        <v>40607.81888778706</v>
       </c>
       <c r="D2" t="n">
-        <v>40665.87804109213</v>
+        <v>40665.87804109212</v>
       </c>
       <c r="E2" t="n">
         <v>34897.95851685206</v>
@@ -26332,19 +26332,19 @@
         <v>40695.97043074681</v>
       </c>
       <c r="I2" t="n">
-        <v>40695.97043074681</v>
+        <v>40695.9704307468</v>
       </c>
       <c r="J2" t="n">
-        <v>40695.97043074684</v>
+        <v>40695.97043074683</v>
       </c>
       <c r="K2" t="n">
         <v>40695.97043074683</v>
       </c>
       <c r="L2" t="n">
-        <v>40695.9704307467</v>
+        <v>40695.97043074672</v>
       </c>
       <c r="M2" t="n">
-        <v>40695.9704307468</v>
+        <v>40695.97043074681</v>
       </c>
       <c r="N2" t="n">
         <v>40695.9704307468</v>
@@ -26353,7 +26353,7 @@
         <v>40695.97043074681</v>
       </c>
       <c r="P2" t="n">
-        <v>40695.97043074682</v>
+        <v>40695.9704307468</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26378,10 @@
         <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>81330.12814191973</v>
+        <v>81330.12814191978</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>109885.4625223906</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>82839.78282966815</v>
+        <v>82839.78282966821</v>
       </c>
       <c r="M3" t="n">
-        <v>96612.64950323569</v>
+        <v>96612.64950323571</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>32481.51083699663</v>
@@ -26421,7 +26421,7 @@
         <v>406095.7318240813</v>
       </c>
       <c r="D4" t="n">
-        <v>405671.0012143496</v>
+        <v>405671.0012143497</v>
       </c>
       <c r="E4" t="n">
         <v>259576.9015265926</v>
@@ -26433,16 +26433,16 @@
         <v>325503.1638321604</v>
       </c>
       <c r="H4" t="n">
-        <v>325503.1638321604</v>
+        <v>325503.1638321603</v>
       </c>
       <c r="I4" t="n">
         <v>325503.1638321604</v>
       </c>
       <c r="J4" t="n">
+        <v>322313.1150871248</v>
+      </c>
+      <c r="K4" t="n">
         <v>322313.1150871247</v>
-      </c>
-      <c r="K4" t="n">
-        <v>322313.1150871246</v>
       </c>
       <c r="L4" t="n">
         <v>322274.0483978767</v>
@@ -26454,7 +26454,7 @@
         <v>321642.340460981</v>
       </c>
       <c r="O4" t="n">
-        <v>321642.3404609811</v>
+        <v>321642.340460981</v>
       </c>
       <c r="P4" t="n">
         <v>321642.340460981</v>
@@ -26491,7 +26491,7 @@
         <v>47487.41090274647</v>
       </c>
       <c r="J5" t="n">
-        <v>58642.24868009427</v>
+        <v>58642.24868009428</v>
       </c>
       <c r="K5" t="n">
         <v>58642.24868009427</v>
@@ -26500,10 +26500,10 @@
         <v>58357.42573040779</v>
       </c>
       <c r="M5" t="n">
-        <v>50981.48424917021</v>
+        <v>50981.48424917023</v>
       </c>
       <c r="N5" t="n">
-        <v>50981.4842491702</v>
+        <v>50981.48424917023</v>
       </c>
       <c r="O5" t="n">
         <v>50981.48424917021</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-399115.5129362942</v>
+        <v>-399119.9205134423</v>
       </c>
       <c r="C6" t="n">
-        <v>-399115.5129362942</v>
+        <v>-399119.9205134422</v>
       </c>
       <c r="D6" t="n">
-        <v>-401341.8828858348</v>
+        <v>-401343.3875053176</v>
       </c>
       <c r="E6" t="n">
-        <v>-590478.9014053375</v>
+        <v>-590768.8020010322</v>
       </c>
       <c r="F6" t="n">
-        <v>-263619.6757340332</v>
+        <v>-263909.5763297279</v>
       </c>
       <c r="G6" t="n">
         <v>-413624.7324460798</v>
       </c>
       <c r="H6" t="n">
-        <v>-332294.60430416</v>
+        <v>-332294.6043041599</v>
       </c>
       <c r="I6" t="n">
         <v>-332294.60430416</v>
       </c>
       <c r="J6" t="n">
-        <v>-450144.8558588627</v>
+        <v>-450144.8558588628</v>
       </c>
       <c r="K6" t="n">
         <v>-340259.3933364721</v>
@@ -26552,7 +26552,7 @@
         <v>-422775.286527206</v>
       </c>
       <c r="M6" t="n">
-        <v>-428540.5037826401</v>
+        <v>-428540.5037826402</v>
       </c>
       <c r="N6" t="n">
         <v>-331927.8542794044</v>
@@ -26716,16 +26716,16 @@
         <v>144.151617083331</v>
       </c>
       <c r="M2" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="N2" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="O2" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="P2" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
     </row>
     <row r="3">
@@ -26811,7 +26811,7 @@
         <v>425.2997721216249</v>
       </c>
       <c r="J4" t="n">
-        <v>721.136679084498</v>
+        <v>721.1366790844982</v>
       </c>
       <c r="K4" t="n">
         <v>721.1366790844982</v>
@@ -26820,16 +26820,16 @@
         <v>713.8428156039573</v>
       </c>
       <c r="M4" t="n">
-        <v>523.6809233554452</v>
+        <v>523.6809233554455</v>
       </c>
       <c r="N4" t="n">
-        <v>523.6809233554451</v>
+        <v>523.6809233554455</v>
       </c>
       <c r="O4" t="n">
-        <v>523.6809233554451</v>
+        <v>523.6809233554453</v>
       </c>
       <c r="P4" t="n">
-        <v>523.6809233554452</v>
+        <v>523.6809233554453</v>
       </c>
     </row>
   </sheetData>
@@ -26923,25 +26923,25 @@
         <v>101.6626601773997</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.60188854624576</v>
+        <v>40.60188854624579</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>103.5497285370852</v>
+        <v>103.5497285370853</v>
       </c>
       <c r="M2" t="n">
-        <v>49.79126155267647</v>
+        <v>49.79126155267639</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>40.60188854624579</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>295.8369069628731</v>
+        <v>295.8369069628732</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>227.844016392572</v>
+        <v>227.8440163925723</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,16 +27160,16 @@
         <v>101.6626601773997</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.60188854624576</v>
+        <v>40.60188854624579</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27853,10 +27853,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
-        <v>366.9850956789426</v>
+        <v>359.6912321984018</v>
       </c>
       <c r="D8" t="n">
-        <v>349.3108692740576</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
         <v>383.1180357552875</v>
@@ -27907,7 +27907,7 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>245.7126057574465</v>
       </c>
       <c r="V8" t="n">
         <v>328.5332215225193</v>
@@ -27916,7 +27916,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>365.0964413120714</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
         <v>386.6870717512358</v>
@@ -27941,10 +27941,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>136.2123686030085</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>128.7293467245015</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
         <v>110.4625155221328</v>
@@ -27980,7 +27980,7 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>161.6677504251035</v>
       </c>
       <c r="T9" t="n">
         <v>198.3825319082687</v>
@@ -27995,7 +27995,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>197.1677661279374</v>
       </c>
       <c r="Y9" t="n">
         <v>203.671151418586</v>
@@ -28026,16 +28026,16 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H10" t="n">
-        <v>155.2096370552565</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>146.4646833168628</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>81.5449814472381</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>7.480546237292515</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>72.46683639530734</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3911476697823</v>
+        <v>166.0972841892415</v>
       </c>
       <c r="S10" t="n">
-        <v>222.3574069614225</v>
+        <v>215.9329720077622</v>
       </c>
       <c r="T10" t="n">
         <v>228.3324659915077</v>
@@ -28071,7 +28071,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W10" t="n">
-        <v>286.0925768874155</v>
+        <v>278.7987134068747</v>
       </c>
       <c r="X10" t="n">
         <v>226.1403599323093</v>
@@ -28172,10 +28172,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>121.8690163340735</v>
       </c>
       <c r="E12" t="n">
-        <v>11.76153409549488</v>
+        <v>11.76153409549511</v>
       </c>
       <c r="F12" t="n">
         <v>121.8690163340735</v>
@@ -28226,7 +28226,7 @@
         <v>121.8690163340735</v>
       </c>
       <c r="V12" t="n">
-        <v>121.8690163340735</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>121.8690163340735</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28415,7 +28415,7 @@
         <v>121.8690163340735</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>121.8690163340735</v>
       </c>
       <c r="G15" t="n">
         <v>121.8690163340735</v>
@@ -28460,13 +28460,13 @@
         <v>121.8690163340735</v>
       </c>
       <c r="U15" t="n">
-        <v>121.8690163340735</v>
+        <v>11.76153409549497</v>
       </c>
       <c r="V15" t="n">
-        <v>121.8690163340735</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>11.76153409549471</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28652,10 +28652,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>22.68438627505286</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.7432816712511</v>
       </c>
       <c r="H18" t="n">
         <v>107.7589952089386</v>
@@ -28697,7 +28697,7 @@
         <v>197.2542234760137</v>
       </c>
       <c r="U18" t="n">
-        <v>216.5872188474324</v>
+        <v>223.5316765114732</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28773,10 +28773,10 @@
         <v>218.2675279045168</v>
       </c>
       <c r="T19" t="n">
-        <v>27.47532528912544</v>
+        <v>223.5316765114732</v>
       </c>
       <c r="U19" t="n">
-        <v>223.5316765114732</v>
+        <v>27.47532528912535</v>
       </c>
       <c r="V19" t="n">
         <v>223.5316765114732</v>
@@ -28886,10 +28886,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>102.7098307029767</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>135.7432816712511</v>
@@ -28934,10 +28934,10 @@
         <v>197.2542234760137</v>
       </c>
       <c r="U21" t="n">
-        <v>223.5316765114732</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>22.68438627505267</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -29007,10 +29007,10 @@
         <v>162.8389610159191</v>
       </c>
       <c r="S22" t="n">
-        <v>22.21117668216888</v>
+        <v>218.2675279045168</v>
       </c>
       <c r="T22" t="n">
-        <v>223.5316765114732</v>
+        <v>27.47532528912544</v>
       </c>
       <c r="U22" t="n">
         <v>223.5316765114732</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29168,13 +29168,13 @@
         <v>163.7620641661451</v>
       </c>
       <c r="T24" t="n">
-        <v>54.56648414072168</v>
+        <v>197.2542234760137</v>
       </c>
       <c r="U24" t="n">
         <v>223.5316765114732</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>22.68438627505267</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
         <v>167.3365529312023</v>
@@ -29244,13 +29244,13 @@
         <v>162.8389610159191</v>
       </c>
       <c r="S25" t="n">
-        <v>202.2948681728527</v>
+        <v>218.2675279045168</v>
       </c>
       <c r="T25" t="n">
         <v>223.5316765114732</v>
       </c>
       <c r="U25" t="n">
-        <v>223.5316765114732</v>
+        <v>27.47532528912552</v>
       </c>
       <c r="V25" t="n">
         <v>223.5316765114732</v>
@@ -29299,7 +29299,7 @@
         <v>142.2645487236455</v>
       </c>
       <c r="K26" t="n">
-        <v>142.2645487236455</v>
+        <v>142.2645487236448</v>
       </c>
       <c r="L26" t="n">
         <v>142.2645487236455</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>142.2645487236455</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -29369,7 +29369,7 @@
         <v>135.7432816712511</v>
       </c>
       <c r="H27" t="n">
-        <v>107.7589952089386</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>76.8656531573088</v>
@@ -29399,16 +29399,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.31485553149203</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="U27" t="n">
-        <v>134.5556158034614</v>
+        <v>22.73520675726266</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29454,28 +29454,28 @@
         <v>142.2645487236455</v>
       </c>
       <c r="J28" t="n">
-        <v>72.24677949973724</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="M28" t="n">
-        <v>10.06674914484267</v>
+        <v>22.20430294356612</v>
       </c>
       <c r="N28" t="n">
-        <v>142.2645487236455</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>142.2645487236455</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>142.2645487236455</v>
       </c>
       <c r="Q28" t="n">
-        <v>142.2645487236455</v>
+        <v>60.10922570101315</v>
       </c>
       <c r="R28" t="n">
         <v>142.2645487236455</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>142.2645487236455</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -29600,10 +29600,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>50.71949321957521</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>50.71949321957545</v>
       </c>
       <c r="H30" t="n">
         <v>107.7589952089386</v>
@@ -29639,7 +29639,7 @@
         <v>77.31485553149203</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="T30" t="n">
         <v>142.2645487236455</v>
@@ -29779,13 +29779,13 @@
         <v>144.151617083331</v>
       </c>
       <c r="M32" t="n">
-        <v>98.28724947876708</v>
+        <v>144.151617083331</v>
       </c>
       <c r="N32" t="n">
         <v>144.151617083331</v>
       </c>
       <c r="O32" t="n">
-        <v>144.151617083331</v>
+        <v>98.28724947876725</v>
       </c>
       <c r="P32" t="n">
         <v>144.151617083331</v>
@@ -29828,7 +29828,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>144.151617083331</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29843,10 +29843,10 @@
         <v>135.7432816712511</v>
       </c>
       <c r="H33" t="n">
-        <v>107.7589952089386</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>76.8656531573088</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29876,13 +29876,13 @@
         <v>77.31485553149203</v>
       </c>
       <c r="S33" t="n">
-        <v>55.35369191228412</v>
+        <v>95.82672319520087</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>144.151617083331</v>
       </c>
       <c r="U33" t="n">
-        <v>144.151617083331</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29928,28 +29928,28 @@
         <v>144.151617083331</v>
       </c>
       <c r="J34" t="n">
-        <v>72.24677949973724</v>
+        <v>144.151617083331</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>144.151617083331</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>144.151617083331</v>
       </c>
       <c r="M34" t="n">
+        <v>43.95911934728437</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>144.151617083331</v>
-      </c>
-      <c r="N34" t="n">
-        <v>144.151617083331</v>
-      </c>
-      <c r="O34" t="n">
-        <v>144.151617083331</v>
-      </c>
-      <c r="P34" t="n">
-        <v>55.75473122986511</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>60.10922570101315</v>
       </c>
       <c r="R34" t="n">
         <v>144.151617083331</v>
@@ -29983,34 +29983,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="C35" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="D35" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="E35" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="F35" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="G35" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="H35" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="I35" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="J35" t="n">
-        <v>193.9428786360075</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>101.761516804948</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30028,31 +30028,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>101.7615168049496</v>
       </c>
       <c r="R35" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="S35" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="T35" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="U35" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="V35" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="W35" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="X35" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="Y35" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
     </row>
     <row r="36">
@@ -30065,7 +30065,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -30080,10 +30080,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.7589952089386</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>76.8656531573088</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30116,10 +30116,10 @@
         <v>163.7620641661451</v>
       </c>
       <c r="T36" t="n">
-        <v>17.07218202842</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="U36" t="n">
-        <v>193.9428786360075</v>
+        <v>3.473117589572524</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.1224453476893</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
         <v>167.3365529312023</v>
@@ -30189,28 +30189,28 @@
         <v>60.10922570101315</v>
       </c>
       <c r="R37" t="n">
-        <v>162.8389610159191</v>
+        <v>163.8777148729246</v>
       </c>
       <c r="S37" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="T37" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="U37" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="V37" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="W37" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="X37" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="Y37" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
     </row>
     <row r="38">
@@ -30220,40 +30220,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="C38" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="D38" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="E38" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="F38" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="G38" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="H38" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="I38" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="J38" t="n">
-        <v>193.9428786360075</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>101.7615168049475</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>188.9077570865311</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30265,31 +30265,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>106.7966383544258</v>
       </c>
       <c r="R38" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="S38" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="T38" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="U38" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="V38" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="W38" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="X38" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="Y38" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
     </row>
     <row r="39">
@@ -30302,10 +30302,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -30317,10 +30317,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.7589952089386</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>76.8656531573088</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30353,10 +30353,10 @@
         <v>163.7620641661451</v>
       </c>
       <c r="T39" t="n">
-        <v>17.07218202842046</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>193.9428786360075</v>
+        <v>51.30357265093403</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.1224453476889</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.038753857005545</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>162.8389610159191</v>
       </c>
       <c r="S40" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="T40" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="U40" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="V40" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="W40" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="X40" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="Y40" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
     </row>
     <row r="41">
@@ -30457,31 +30457,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="C41" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="D41" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="E41" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="F41" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="G41" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="H41" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="I41" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="J41" t="n">
-        <v>193.9428786360075</v>
+        <v>101.7615168049485</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30502,31 +30502,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>101.7615168049475</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="R41" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="S41" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="T41" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="U41" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="V41" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="W41" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="X41" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="Y41" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
     </row>
     <row r="42">
@@ -30539,25 +30539,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>135.7432816712511</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.7589952089386</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>76.8656531573088</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30593,7 +30593,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>41.72219325284615</v>
+        <v>131.7240503245658</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>181.1224453476888</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
         <v>167.3365529312023</v>
@@ -30639,7 +30639,7 @@
         <v>146.7009985865303</v>
       </c>
       <c r="J43" t="n">
-        <v>72.24677949973724</v>
+        <v>73.28553335674282</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>162.8389610159191</v>
       </c>
       <c r="S43" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="T43" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="U43" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="V43" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="W43" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="X43" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="C44" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="D44" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="E44" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="F44" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="G44" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="H44" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="I44" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>101.7615168049484</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30736,34 +30736,34 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>101.761516804948</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="Q44" t="n">
-        <v>193.9428786360075</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="S44" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="T44" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="U44" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="V44" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="W44" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="X44" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="Y44" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
     </row>
     <row r="45">
@@ -30788,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>80.78797312106573</v>
+        <v>135.7432816712511</v>
       </c>
       <c r="H45" t="n">
         <v>107.7589952089386</v>
@@ -30824,13 +30824,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>163.7620641661451</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>108.8067556159591</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.038753857005588</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>60.10922570101315</v>
       </c>
       <c r="R46" t="n">
-        <v>163.8777148729246</v>
+        <v>162.8389610159191</v>
       </c>
       <c r="S46" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="T46" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="U46" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="V46" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="W46" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="X46" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.9428786360075</v>
+        <v>193.9428786360074</v>
       </c>
     </row>
   </sheetData>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.939619267058895</v>
+      </c>
+      <c r="N8" t="n">
         <v>7.293863480540836</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.939619267058895</v>
       </c>
       <c r="O8" t="n">
         <v>7.293863480540836</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>7.293863480540836</v>
@@ -35258,10 +35258,10 @@
         <v>7.293863480540836</v>
       </c>
       <c r="M9" t="n">
+        <v>7.293863480540836</v>
+      </c>
+      <c r="N9" t="n">
         <v>6.999161925771512</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>33.91509841366037</v>
       </c>
       <c r="K12" t="n">
-        <v>41.83838962189868</v>
+        <v>185.8507629167292</v>
       </c>
       <c r="L12" t="n">
         <v>311.363535608004</v>
@@ -35498,13 +35498,13 @@
         <v>416.6800893537479</v>
       </c>
       <c r="N12" t="n">
-        <v>425.2997721216249</v>
+        <v>27.2570942833787</v>
       </c>
       <c r="O12" t="n">
         <v>337.1875928924159</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>254.0303045434155</v>
       </c>
       <c r="Q12" t="n">
         <v>117.7307812985168</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.62223683433623</v>
+        <v>49.6222368343362</v>
       </c>
       <c r="K13" t="n">
         <v>134.3604669956117</v>
@@ -35580,13 +35580,13 @@
         <v>211.9788863716348</v>
       </c>
       <c r="O13" t="n">
-        <v>189.6085543467104</v>
+        <v>189.6085543467103</v>
       </c>
       <c r="P13" t="n">
-        <v>156.3748415572612</v>
+        <v>156.3748415572611</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.75979063306033</v>
+        <v>61.7597906330603</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>337.1875928924159</v>
       </c>
       <c r="P15" t="n">
-        <v>193.4842693340759</v>
+        <v>193.4842693340757</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.62223683433628</v>
+        <v>49.62223683433624</v>
       </c>
       <c r="K16" t="n">
         <v>134.3604669956117</v>
@@ -35823,7 +35823,7 @@
         <v>156.3748415572612</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.75979063306038</v>
+        <v>61.75979063306034</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>43.74537676397409</v>
+        <v>43.74537676397419</v>
       </c>
       <c r="K17" t="n">
         <v>189.0746897800043</v>
@@ -35966,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>311.363535608004</v>
+        <v>250.8175003986642</v>
       </c>
       <c r="M18" t="n">
         <v>416.6800893537479</v>
@@ -35978,7 +35978,7 @@
         <v>337.1875928924159</v>
       </c>
       <c r="P18" t="n">
-        <v>193.4842693340759</v>
+        <v>254.0303045434155</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>33.91509841366037</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>185.8507629167292</v>
       </c>
       <c r="L21" t="n">
         <v>311.363535608004</v>
@@ -36209,16 +36209,16 @@
         <v>416.6800893537479</v>
       </c>
       <c r="N21" t="n">
-        <v>425.2997721216249</v>
+        <v>27.2570942833787</v>
       </c>
       <c r="O21" t="n">
         <v>337.1875928924159</v>
       </c>
       <c r="P21" t="n">
-        <v>193.4842693340759</v>
+        <v>254.0303045434155</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>117.7307812985168</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>311.363535608004</v>
+        <v>250.8175003986642</v>
       </c>
       <c r="M24" t="n">
         <v>416.6800893537479</v>
@@ -36452,7 +36452,7 @@
         <v>337.1875928924159</v>
       </c>
       <c r="P24" t="n">
-        <v>193.4842693340759</v>
+        <v>254.0303045434155</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>186.0099254876196</v>
       </c>
       <c r="K26" t="n">
-        <v>331.3392385036498</v>
+        <v>331.3392385036491</v>
       </c>
       <c r="L26" t="n">
         <v>429.3224388296873</v>
@@ -36604,10 +36604,10 @@
         <v>477.0377149925599</v>
       </c>
       <c r="N26" t="n">
-        <v>466.7807806837549</v>
+        <v>466.780780683755</v>
       </c>
       <c r="O26" t="n">
-        <v>402.1017300607943</v>
+        <v>402.1017300607944</v>
       </c>
       <c r="P26" t="n">
         <v>326.7176591583366</v>
@@ -36616,7 +36616,7 @@
         <v>202.8221613826301</v>
       </c>
       <c r="R26" t="n">
-        <v>33.27823172039513</v>
+        <v>33.27823172039515</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>70.01776922390829</v>
       </c>
       <c r="K28" t="n">
-        <v>12.49145066153822</v>
+        <v>154.7559993851837</v>
       </c>
       <c r="L28" t="n">
-        <v>72.35204420743204</v>
+        <v>214.6165929310776</v>
       </c>
       <c r="M28" t="n">
-        <v>97.05173386487363</v>
+        <v>109.1892876635971</v>
       </c>
       <c r="N28" t="n">
-        <v>232.3744187612069</v>
+        <v>90.10987003756136</v>
       </c>
       <c r="O28" t="n">
-        <v>210.0040867362824</v>
+        <v>67.7395380126369</v>
       </c>
       <c r="P28" t="n">
         <v>176.7703739468332</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.15532302263236</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>466.7807806837549</v>
       </c>
       <c r="O29" t="n">
-        <v>402.1017300607942</v>
+        <v>402.1017300607943</v>
       </c>
       <c r="P29" t="n">
         <v>326.7176591583365</v>
@@ -37075,13 +37075,13 @@
         <v>431.2095071893727</v>
       </c>
       <c r="M32" t="n">
-        <v>433.0604157476815</v>
+        <v>478.9247833522454</v>
       </c>
       <c r="N32" t="n">
         <v>468.6678490434405</v>
       </c>
       <c r="O32" t="n">
-        <v>403.9887984204798</v>
+        <v>358.1244308159161</v>
       </c>
       <c r="P32" t="n">
         <v>328.6047275180221</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>71.90483758359377</v>
       </c>
       <c r="K34" t="n">
-        <v>12.49145066153822</v>
+        <v>156.6430677448692</v>
       </c>
       <c r="L34" t="n">
-        <v>72.35204420743204</v>
+        <v>216.5036612907631</v>
       </c>
       <c r="M34" t="n">
-        <v>231.136601803362</v>
+        <v>130.9441040673153</v>
       </c>
       <c r="N34" t="n">
-        <v>234.2614871208924</v>
+        <v>90.10987003756136</v>
       </c>
       <c r="O34" t="n">
-        <v>211.8911550959679</v>
+        <v>67.7395380126369</v>
       </c>
       <c r="P34" t="n">
-        <v>90.26055645305281</v>
+        <v>34.5058252231877</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>84.04239138231787</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>8.888651852121257</v>
+        <v>8.888651852121228</v>
       </c>
       <c r="J35" t="n">
-        <v>237.6882553999816</v>
+        <v>43.74537676397409</v>
       </c>
       <c r="K35" t="n">
-        <v>290.8362065849523</v>
+        <v>383.0175684160117</v>
       </c>
       <c r="L35" t="n">
         <v>287.0578901060417</v>
@@ -37324,10 +37324,10 @@
         <v>184.453110434691</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.55761265898458</v>
+        <v>162.3191294639341</v>
       </c>
       <c r="R35" t="n">
-        <v>84.95656163275709</v>
+        <v>84.95656163275706</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>7.459155423292192</v>
+        <v>7.459155423293542</v>
       </c>
       <c r="K36" t="n">
         <v>185.8507629167292</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.038753857005472</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.038753857005529</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,19 +37537,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>8.888651852121285</v>
+        <v>8.888651852121228</v>
       </c>
       <c r="J38" t="n">
-        <v>237.6882553999816</v>
+        <v>43.74537676397409</v>
       </c>
       <c r="K38" t="n">
-        <v>290.8362065849518</v>
+        <v>189.0746897800043</v>
       </c>
       <c r="L38" t="n">
         <v>287.0578901060417</v>
       </c>
       <c r="M38" t="n">
-        <v>334.7731662689145</v>
+        <v>523.6809233554455</v>
       </c>
       <c r="N38" t="n">
         <v>324.5162319601094</v>
@@ -37561,10 +37561,10 @@
         <v>184.453110434691</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.55761265898458</v>
+        <v>167.3542510134104</v>
       </c>
       <c r="R38" t="n">
-        <v>84.95656163275711</v>
+        <v>84.95656163275706</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>7.45915542329174</v>
+        <v>33.91509841366037</v>
       </c>
       <c r="K39" t="n">
         <v>185.8507629167292</v>
@@ -37640,7 +37640,7 @@
         <v>254.0303045434155</v>
       </c>
       <c r="Q39" t="n">
-        <v>117.7307812985168</v>
+        <v>91.27483830814991</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.038753857005134</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>86.98498472003095</v>
       </c>
       <c r="N40" t="n">
-        <v>90.10987003756136</v>
+        <v>91.14862389456691</v>
       </c>
       <c r="O40" t="n">
         <v>67.7395380126369</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8.888651852121313</v>
+        <v>8.888651852121228</v>
       </c>
       <c r="J41" t="n">
-        <v>237.6882553999816</v>
+        <v>145.5068935689225</v>
       </c>
       <c r="K41" t="n">
         <v>189.0746897800043</v>
@@ -37798,10 +37798,10 @@
         <v>184.453110434691</v>
       </c>
       <c r="Q41" t="n">
-        <v>162.3191294639321</v>
+        <v>254.500491294992</v>
       </c>
       <c r="R41" t="n">
-        <v>84.95656163275714</v>
+        <v>84.95656163275706</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>7.45915542329174</v>
+        <v>33.91509841366037</v>
       </c>
       <c r="K42" t="n">
         <v>185.8507629167292</v>
@@ -37871,7 +37871,7 @@
         <v>443.2626461995807</v>
       </c>
       <c r="O42" t="n">
-        <v>337.1875928924159</v>
+        <v>310.731649902048</v>
       </c>
       <c r="P42" t="n">
         <v>254.0303045434155</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.038753857005019</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1.038753857005579</v>
       </c>
       <c r="K43" t="n">
         <v>12.49145066153822</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.888651852121257</v>
+        <v>8.888651852121228</v>
       </c>
       <c r="J44" t="n">
         <v>43.74537676397409</v>
@@ -38023,7 +38023,7 @@
         <v>287.0578901060417</v>
       </c>
       <c r="M44" t="n">
-        <v>334.7731662689145</v>
+        <v>436.5346830738629</v>
       </c>
       <c r="N44" t="n">
         <v>324.5162319601094</v>
@@ -38032,13 +38032,13 @@
         <v>259.8371813371488</v>
       </c>
       <c r="P44" t="n">
-        <v>286.214627239639</v>
+        <v>378.3959890706985</v>
       </c>
       <c r="Q44" t="n">
-        <v>254.5004912949921</v>
+        <v>60.55761265898458</v>
       </c>
       <c r="R44" t="n">
-        <v>84.95656163275709</v>
+        <v>84.95656163275706</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>311.363535608004</v>
       </c>
       <c r="M45" t="n">
-        <v>390.2241463633796</v>
+        <v>416.6800893537479</v>
       </c>
       <c r="N45" t="n">
         <v>443.2626461995807</v>
@@ -38114,7 +38114,7 @@
         <v>254.0303045434155</v>
       </c>
       <c r="Q45" t="n">
-        <v>117.7307812985168</v>
+        <v>91.27483830814899</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>90.10987003756136</v>
       </c>
       <c r="O46" t="n">
-        <v>67.7395380126369</v>
+        <v>68.77829186964249</v>
       </c>
       <c r="P46" t="n">
         <v>34.5058252231877</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1.038753857005472</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
